--- a/Data/silvicsDataScraping.xlsx
+++ b/Data/silvicsDataScraping.xlsx
@@ -1,41 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\my_repo_dir\mast_trait\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\PhD_thesis\mast_trait\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB03C774-6F29-4A5C-B7A3-A56A630775CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15984780-F7A0-458E-A8E3-4A8FB56A3A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vol1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="156">
   <si>
     <t>typeMonoOrDio</t>
   </si>
   <si>
-    <t>seedDispersalTime</t>
-  </si>
-  <si>
-    <t>seedDropTime</t>
-  </si>
-  <si>
     <t>reprodAge</t>
   </si>
   <si>
@@ -81,9 +87,6 @@
     <t>Temperate</t>
   </si>
   <si>
-    <t>Sept-Oct (can continue until April)</t>
-  </si>
-  <si>
     <t>lifeSpanMax</t>
   </si>
   <si>
@@ -91,17 +94,546 @@
   </si>
   <si>
     <t>Barochory, limited Anemochory</t>
+  </si>
+  <si>
+    <t>mastEvent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mastCycle</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>leafLongevity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abies</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>balsamea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>criticalEnvironmentalCue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>soil moisture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pollination</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seedDispersal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mainSeedDropTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stratification</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm moist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>concolor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monoecious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moisture and temperature</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fraseri</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frost</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lasiocarpa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seedPredator</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind, pine squirrels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deer mice, mountain voles, western chipmunks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold moist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>magnifica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>familyName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pinaceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low precipitation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chamaecyparis</t>
+  </si>
+  <si>
+    <t>Chamaecyparis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawsoniana</t>
+  </si>
+  <si>
+    <t>nootkatensis</t>
+  </si>
+  <si>
+    <t>thyoides</t>
+  </si>
+  <si>
+    <t>Juniperus</t>
+  </si>
+  <si>
+    <t>occidentalis</t>
+  </si>
+  <si>
+    <t>scopulorum</t>
+  </si>
+  <si>
+    <t>silicicola</t>
+  </si>
+  <si>
+    <t>virginiana</t>
+  </si>
+  <si>
+    <t>Larix</t>
+  </si>
+  <si>
+    <t>laricina</t>
+  </si>
+  <si>
+    <t>lyallii</t>
+  </si>
+  <si>
+    <t>Libocedrus</t>
+  </si>
+  <si>
+    <t>decurrens</t>
+  </si>
+  <si>
+    <t>Picea</t>
+  </si>
+  <si>
+    <t>breweriana</t>
+  </si>
+  <si>
+    <t>engelmannii</t>
+  </si>
+  <si>
+    <t>glauca</t>
+  </si>
+  <si>
+    <t>mariana</t>
+  </si>
+  <si>
+    <t>floweringTimeLocation1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>floweringTimeLocation2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>both</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-May, low elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-June, high elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May or June, California</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>July, Rocky Mountain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-May or early June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>June, high elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-June to late June, southwestern Oregon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35-45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>910-1520</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poor seed quality due to inadequate pollen, poor synchrony between female receptivity and pollen shedding, selfing, insects.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>small wings, aid their flotation on water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600-1500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April, south</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>June, north</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-early winter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1950</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-457</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct-late winter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>summer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>185-3050</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird, mammal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>good crop every year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dioecious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-April to mid-June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-Sep to mid-Dec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan to Feb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late spring to early summer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digestive system of an animal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>irregular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-1070</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1220</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Feb to early spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May to June, California</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May to June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late March to mid-May, low elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late May or early June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Sep to mid-Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Sep to early Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late July to mid-Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late April to early May, Ontario</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-May to late May, Alaska</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug to Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1370-2800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep-Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>large wings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-2960</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late winter to early spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>700-2290 in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early summer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2438-3658</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May to early June, low elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-June to early July, high elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150-1220</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May to early June, south</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid June, north</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug to early Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1830-3050</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May or June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -109,8 +641,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -134,9 +682,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,98 +967,1276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.54296875" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" customWidth="1"/>
+    <col min="9" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" customWidth="1"/>
+    <col min="12" max="12" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.25" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.75" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" style="3"/>
+    <col min="25" max="25" width="12.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>135</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2">
+        <v>590</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>123</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3">
+        <v>200</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>134</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4">
+        <v>350</v>
+      </c>
+      <c r="P4">
+        <v>40</v>
+      </c>
+      <c r="W4" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5">
+        <v>150</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+      <c r="W5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" t="s">
+        <v>122</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>135</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6">
+        <v>300</v>
+      </c>
+      <c r="P6">
+        <v>20</v>
+      </c>
+      <c r="W6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7">
+        <v>250</v>
+      </c>
+      <c r="P7">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8">
+        <v>600</v>
+      </c>
+      <c r="P8" t="s">
+        <v>86</v>
+      </c>
+      <c r="W8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>125</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9">
+        <v>700</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
+      <c r="W9" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" s="3">
+        <v>6</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10">
+        <v>600</v>
+      </c>
+      <c r="P10" t="s">
+        <v>90</v>
+      </c>
+      <c r="V10" t="s">
+        <v>92</v>
+      </c>
+      <c r="W10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11">
+        <v>700</v>
+      </c>
+      <c r="W11" t="s">
+        <v>30</v>
+      </c>
+      <c r="X11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12">
+        <v>1000</v>
+      </c>
+      <c r="W12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s">
+        <v>106</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>103</v>
+      </c>
+      <c r="W13" t="s">
+        <v>30</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
+        <v>106</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" t="s">
+        <v>108</v>
+      </c>
+      <c r="M14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14">
+        <v>200</v>
+      </c>
+      <c r="P14">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="W14" t="s">
+        <v>30</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M15" t="s">
+        <v>110</v>
+      </c>
+      <c r="R15" t="s">
+        <v>113</v>
+      </c>
+      <c r="W15" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>131</v>
+      </c>
+      <c r="F16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" t="s">
+        <v>117</v>
+      </c>
+      <c r="P16">
+        <v>10</v>
+      </c>
+      <c r="W16" t="s">
+        <v>30</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>141</v>
+      </c>
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" t="s">
+        <v>127</v>
+      </c>
+      <c r="J17" t="s">
+        <v>128</v>
+      </c>
+      <c r="K17" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" t="s">
+        <v>129</v>
+      </c>
+      <c r="N17" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="W17" t="s">
+        <v>30</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>152</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>134</v>
+      </c>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>160</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2">
-        <v>590</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="V19" t="s">
+        <v>139</v>
+      </c>
+      <c r="W19" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>173</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>141</v>
+      </c>
+      <c r="K20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" t="s">
+        <v>139</v>
+      </c>
+      <c r="W20" t="s">
+        <v>30</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>181</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" t="s">
+        <v>135</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="W21" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" t="s">
+        <v>145</v>
+      </c>
+      <c r="J22" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" t="s">
+        <v>134</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22">
+        <v>250</v>
+      </c>
+      <c r="P22" t="s">
+        <v>147</v>
+      </c>
+      <c r="W22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>204</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" t="s">
+        <v>149</v>
+      </c>
+      <c r="J23" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" t="s">
+        <v>151</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P23">
+        <v>10</v>
+      </c>
+      <c r="W23" t="s">
+        <v>30</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>227</v>
+      </c>
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" t="s">
+        <v>155</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24">
         <v>20</v>
       </c>
-      <c r="O2" t="s">
-        <v>21</v>
+      <c r="W24" t="s">
+        <v>30</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/silvicsDataScraping.xlsx
+++ b/Data/silvicsDataScraping.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\PhD_thesis\mast_trait\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15984780-F7A0-458E-A8E3-4A8FB56A3A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD57B6F-A2CB-49B4-99B9-BEE728A28376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vol1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="373">
   <si>
     <t>typeMonoOrDio</t>
   </si>
@@ -228,216 +227,1122 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>low precipitation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chamaecyparis</t>
+  </si>
+  <si>
+    <t>Chamaecyparis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lawsoniana</t>
+  </si>
+  <si>
+    <t>nootkatensis</t>
+  </si>
+  <si>
+    <t>thyoides</t>
+  </si>
+  <si>
+    <t>Juniperus</t>
+  </si>
+  <si>
+    <t>occidentalis</t>
+  </si>
+  <si>
+    <t>scopulorum</t>
+  </si>
+  <si>
+    <t>silicicola</t>
+  </si>
+  <si>
+    <t>virginiana</t>
+  </si>
+  <si>
+    <t>Larix</t>
+  </si>
+  <si>
+    <t>laricina</t>
+  </si>
+  <si>
+    <t>lyallii</t>
+  </si>
+  <si>
+    <t>Libocedrus</t>
+  </si>
+  <si>
+    <t>decurrens</t>
+  </si>
+  <si>
+    <t>Picea</t>
+  </si>
+  <si>
+    <t>breweriana</t>
+  </si>
+  <si>
+    <t>engelmannii</t>
+  </si>
+  <si>
+    <t>glauca</t>
+  </si>
+  <si>
+    <t>mariana</t>
+  </si>
+  <si>
+    <t>floweringTimeLocation1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>floweringTimeLocation2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-May, low elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-June, high elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May or June, California</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>July, Rocky Mountain</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-May or early June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>June, high elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-June to late June, southwestern Oregon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35-45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>910-1520</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poor seed quality due to inadequate pollen, poor synchrony between female receptivity and pollen shedding, selfing, insects.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>small wings, aid their flotation on water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600-1500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April, south</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>June, north</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-early winter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1950</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-457</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct-late winter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>summer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>185-3050</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird, mammal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>good crop every year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dioecious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-April to mid-June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-Sep to mid-Dec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan to Feb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late spring to early summer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>digestive system of an animal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>irregular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30-1070</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Feb to early spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May to June, California</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May to June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late March to mid-May, low elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late May or early June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Sep to mid-Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Sep to early Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late July to mid-Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late April to early May, Ontario</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-May to late May, Alaska</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug to Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1370-2800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep-Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>large wings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50-2960</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late winter to early spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early summer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2438-3658</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May to early June, low elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-June to early July, high elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150-1220</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May to early June, south</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid June, north</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1830-3050</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May or June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pungens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>growth on moist soil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early Sep to late Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>most seeds fall within 90m of the upwind timber edge</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600 or more</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shadeTolerance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cones remain partially closed and disperse for several years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effective up to 79 m from the windward edge of the stand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-1830</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moisture together with fertility</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cool, wet or snowy weather delays the onset of dispersal and causes cones to close</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Squirrel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>can disperse far</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pine squirrel, deer mice, red-backed mice, mountain voles, chipmunk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep-Ot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind, squirrels, other mammals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>can disperse to 244 m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tolerant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>700-2290</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>large wings, can disperse far</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not favored by mammals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug-Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>burning or mechanical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intolerant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-1220</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>most seeds fall within distance of twice the tree height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-2740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intolerant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sand or peat medium, warm and cold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tolerant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400-2740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>610-3353</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>460-1830</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1372-2037</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200-3400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-1917</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-1890</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monoecious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>floweringDuration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sitchensis</t>
+  </si>
+  <si>
+    <t>Pinus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>albicaulis</t>
+  </si>
+  <si>
+    <t>banksiana</t>
+  </si>
+  <si>
+    <t>clausa</t>
+  </si>
+  <si>
+    <t>contorta</t>
+  </si>
+  <si>
+    <t>echinata</t>
+  </si>
+  <si>
+    <t>edulis</t>
+  </si>
+  <si>
+    <t>elliottii</t>
+  </si>
+  <si>
+    <t>flexilis</t>
+  </si>
+  <si>
+    <t>glabra</t>
+  </si>
+  <si>
+    <t>jeffreyi</t>
+  </si>
+  <si>
+    <t>lambertiana</t>
+  </si>
+  <si>
+    <t>monophylla</t>
+  </si>
+  <si>
+    <t>monticola</t>
+  </si>
+  <si>
+    <t>nigra</t>
+  </si>
+  <si>
+    <t>palustris</t>
+  </si>
+  <si>
+    <t>ponderosa</t>
+  </si>
+  <si>
+    <t>pungens</t>
+  </si>
+  <si>
+    <t>radiata</t>
+  </si>
+  <si>
+    <t>resinosa</t>
+  </si>
+  <si>
+    <t>rigida</t>
+  </si>
+  <si>
+    <t>sabiniana</t>
+  </si>
+  <si>
+    <t>serotina</t>
+  </si>
+  <si>
+    <t>strobus</t>
+  </si>
+  <si>
+    <t>sylvestris</t>
+  </si>
+  <si>
+    <t>taeda</t>
+  </si>
+  <si>
+    <t>Pseudotsuga</t>
+  </si>
+  <si>
+    <t>macrocarpa</t>
+  </si>
+  <si>
+    <t>menziesii</t>
+  </si>
+  <si>
+    <t>Sequoia</t>
+  </si>
+  <si>
+    <t>sempervirens</t>
+  </si>
+  <si>
+    <t>Sequoiadendron</t>
+  </si>
+  <si>
+    <t>giganteum</t>
+  </si>
+  <si>
+    <t>Taxodium</t>
+  </si>
+  <si>
+    <t>distichum var. distichum</t>
+  </si>
+  <si>
+    <t>distichum var. nutans</t>
+  </si>
+  <si>
+    <t>Taxus</t>
+  </si>
+  <si>
+    <t>brevifolia</t>
+  </si>
+  <si>
+    <t>Thuja</t>
+  </si>
+  <si>
+    <t>plicata</t>
+  </si>
+  <si>
+    <t>Torreya</t>
+  </si>
+  <si>
+    <t>taxifolia</t>
+  </si>
+  <si>
+    <t>Tsuga</t>
+  </si>
+  <si>
+    <t>canadensis</t>
+  </si>
+  <si>
+    <t>heterophylla</t>
+  </si>
+  <si>
+    <t>mertensiana</t>
+  </si>
+  <si>
+    <t>Subtropical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-910</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>463000/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late April, southern part</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early June, northern part</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>October</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispersal distances range from 800m to 30m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100-2440</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>June, mid-elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4850-9900/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clark's nutcrackers, red squirrel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mammal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300-760</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-May to early June, northeastern Wisconsin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>288800/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>take several years for them to drop cones, fire is important</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fire is required to release the seeds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-Nov, northern Florida</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Dec to mid-Jan, northwest Florida</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cone requires heat to open</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40-60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25447/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep-Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dispersal distance 23 m to 28 m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>910-2130</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-June to Late June, higher elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug to Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Squirrel and coreid bugs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>298000/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-910</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Oct to early Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>85% fall within 50m of forest walls</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>102100/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind, mammal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>March to April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-3050</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>June, Cascade range and British Columbia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-May to June, Alaska</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>daytime temperature pollen release; high temperature before cone production favor cone-bud initiation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Sep to Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GerminationRate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47-75%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsuga</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-2130</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25-30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>573000/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>disperse far</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-Sep to late Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-April to late April, Western Oregon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late May to June, coastal Alaska</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300-1520</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Elevation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>high</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>low precipitation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>procera</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chamaecyparis</t>
-  </si>
-  <si>
-    <t>Chamaecyparis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lawsoniana</t>
-  </si>
-  <si>
-    <t>nootkatensis</t>
-  </si>
-  <si>
-    <t>thyoides</t>
-  </si>
-  <si>
-    <t>Juniperus</t>
-  </si>
-  <si>
-    <t>occidentalis</t>
-  </si>
-  <si>
-    <t>scopulorum</t>
-  </si>
-  <si>
-    <t>silicicola</t>
-  </si>
-  <si>
-    <t>virginiana</t>
-  </si>
-  <si>
-    <t>Larix</t>
-  </si>
-  <si>
-    <t>laricina</t>
-  </si>
-  <si>
-    <t>lyallii</t>
-  </si>
-  <si>
-    <t>Libocedrus</t>
-  </si>
-  <si>
-    <t>decurrens</t>
-  </si>
-  <si>
-    <t>Picea</t>
-  </si>
-  <si>
-    <t>breweriana</t>
-  </si>
-  <si>
-    <t>engelmannii</t>
-  </si>
-  <si>
-    <t>glauca</t>
-  </si>
-  <si>
-    <t>mariana</t>
-  </si>
-  <si>
-    <t>floweringTimeLocation1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>floweringTimeLocation2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>both</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid-May, low elevation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid-June, high elevation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>May or June, California</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>July, Rocky Mountain</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid-May or early June</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>June, high elevation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid-June to late June, southwestern Oregon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35-45</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>910-1520</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>poor seed quality due to inadequate pollen, poor synchrony between female receptivity and pollen shedding, selfing, insects.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>small wings, aid their flotation on water</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>600-1500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>April, south</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>June, north</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fall-early winter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1950</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-457</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oct-late winter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>summer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>185-3050</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>spring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bird, mammal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>good crop every year</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-2740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dioecious</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid-April to mid-June</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid-Sep to mid-Dec</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-5</t>
+    <t>610-2440</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1520-2900</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>335-3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000-3050</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>450-2300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>250-1800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-185</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperate, Subtropical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46-1762</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-640</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>210-820</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April to June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>430-1370</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-1220</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-820</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150-365</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-760</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>275-2400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early March to mid-April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep to Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-3260</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-915</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400-2700</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-530</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taxodiaceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150-530</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-2440</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sea level-2290</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>soil moisture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-May to late May, Vancouver and northwestern Washington</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4190/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>83-96%</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -445,183 +1350,99 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Jan to Feb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>late spring to early summer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>digestive system of an animal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>irregular</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fall</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30-1070</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>animals</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-1220</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>late Feb to early spring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>May to June, California</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>May to June</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>late March to mid-May, low elevation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>late May or early June</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>late Sep to mid-Oct</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>late Sep to early Oct</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>late July to mid-Nov</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>late April to early May, Ontario</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid-May to late May, Alaska</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aug to Sep</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12-15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>rodents</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1370-2800</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sep</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sep-Oct</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid-Oct</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>large wings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50-2960</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>late winter to early spring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>700-2290 in</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>early summer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2438-3658</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>May to early June, low elevation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid-June to early July, high elevation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15-40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150-1220</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>May to early June, south</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mid June, north</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aug to early Sep</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1830-3050</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>May or June</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aug</t>
+    <t>4-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Jan to Feb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29760/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>June to July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10800/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mammal and birds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>101410/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>June or July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep or Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>can be widely spread</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind, bird</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>squirrels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late May, low elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early Aug, high elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cone beetles, squirrels, woodpeckers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4630/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Aug to Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000/kg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -967,10 +1788,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AD66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -984,21 +1807,23 @@
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.08203125" customWidth="1"/>
-    <col min="12" max="12" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.58203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.25" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.75" customWidth="1"/>
-    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.6640625" style="3"/>
-    <col min="25" max="25" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="12" max="12" width="14.08203125" customWidth="1"/>
+    <col min="13" max="13" width="31.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.75" customWidth="1"/>
+    <col min="22" max="22" width="13.4140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.6640625" style="3"/>
+    <col min="27" max="27" width="12.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1021,67 +1846,76 @@
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>313</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1104,49 +1938,52 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
-      </c>
-      <c r="K2" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" t="s">
-        <v>135</v>
-      </c>
       <c r="M2" t="s">
+        <v>130</v>
+      </c>
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>590</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>48</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>18</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>30</v>
       </c>
-      <c r="X2" s="3">
+      <c r="Z2" s="3">
         <v>3</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AB2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1169,40 +2006,43 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" t="s">
-        <v>135</v>
-      </c>
       <c r="M3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N3" t="s">
         <v>28</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>200</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>30</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>34</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1225,40 +2065,43 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
-      </c>
-      <c r="K4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L4" t="s">
         <v>28</v>
       </c>
-      <c r="L4" t="s">
-        <v>134</v>
-      </c>
       <c r="M4" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" t="s">
         <v>28</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>350</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>40</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>30</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="Z4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1281,34 +2124,40 @@
         <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="I5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" t="s">
         <v>28</v>
       </c>
-      <c r="L5" t="s">
-        <v>135</v>
-      </c>
       <c r="M5" t="s">
+        <v>130</v>
+      </c>
+      <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="s">
+        <v>158</v>
+      </c>
+      <c r="P5">
         <v>150</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>15</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>30</v>
       </c>
-      <c r="X5" s="3">
+      <c r="Z5" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1331,40 +2180,49 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
         <v>28</v>
       </c>
-      <c r="L6" t="s">
-        <v>135</v>
-      </c>
       <c r="M6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>300</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>20</v>
       </c>
-      <c r="W6" t="s">
+      <c r="R6" t="s">
+        <v>182</v>
+      </c>
+      <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" t="s">
         <v>30</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AB6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1387,43 +2245,46 @@
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" t="s">
-        <v>135</v>
-      </c>
       <c r="M7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7" t="s">
         <v>46</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>47</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>250</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>20</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>30</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>48</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" t="s">
         <v>30</v>
       </c>
-      <c r="X7" s="3">
+      <c r="Z7" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1446,42 +2307,45 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>190</v>
       </c>
       <c r="I8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
-      </c>
-      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
         <v>28</v>
       </c>
-      <c r="L8" t="s">
-        <v>124</v>
-      </c>
       <c r="M8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N8" t="s">
         <v>28</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>600</v>
       </c>
-      <c r="P8" t="s">
-        <v>86</v>
-      </c>
-      <c r="W8" t="s">
+      <c r="Q8" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y8" t="s">
         <v>30</v>
       </c>
-      <c r="Z8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
@@ -1499,42 +2363,48 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
         <v>28</v>
       </c>
-      <c r="L9" t="s">
-        <v>125</v>
-      </c>
       <c r="M9" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" t="s">
         <v>28</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>700</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>20</v>
       </c>
-      <c r="W9" t="s">
+      <c r="R9" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y9" t="s">
         <v>30</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>6</v>
       </c>
-      <c r="AA9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>51</v>
@@ -1552,39 +2422,45 @@
         <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
         <v>28</v>
       </c>
-      <c r="L10" t="s">
-        <v>135</v>
-      </c>
       <c r="M10" t="s">
+        <v>130</v>
+      </c>
+      <c r="N10" t="s">
         <v>28</v>
       </c>
-      <c r="O10">
-        <v>600</v>
-      </c>
-      <c r="P10" t="s">
-        <v>90</v>
-      </c>
-      <c r="V10" t="s">
-        <v>92</v>
-      </c>
-      <c r="W10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="P10">
+        <v>560</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" t="s">
+        <v>189</v>
+      </c>
+      <c r="X10" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
         <v>51</v>
@@ -1602,39 +2478,48 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
         <v>93</v>
       </c>
-      <c r="I11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" t="s">
-        <v>95</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="N11" t="s">
         <v>28</v>
       </c>
-      <c r="L11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O11">
+      <c r="P11">
         <v>700</v>
       </c>
-      <c r="W11" t="s">
+      <c r="R11" t="s">
+        <v>182</v>
+      </c>
+      <c r="S11" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y11" t="s">
         <v>30</v>
       </c>
-      <c r="X11" s="3">
+      <c r="Z11" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
         <v>51</v>
@@ -1652,33 +2537,36 @@
         <v>37</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
-      </c>
-      <c r="K12" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" t="s">
         <v>28</v>
       </c>
-      <c r="L12" t="s">
-        <v>99</v>
-      </c>
       <c r="M12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" t="s">
         <v>28</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>1000</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Y12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>51</v>
@@ -1690,36 +2578,48 @@
         <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
       </c>
       <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>100</v>
+      </c>
+      <c r="P13">
+        <v>400</v>
+      </c>
+      <c r="R13" t="s">
+        <v>182</v>
+      </c>
+      <c r="S13" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="I13" t="s">
-        <v>102</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" t="s">
-        <v>103</v>
-      </c>
-      <c r="W13" t="s">
-        <v>30</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
         <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
       </c>
       <c r="C14" t="s">
         <v>51</v>
@@ -1731,45 +2631,45 @@
         <v>116</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
       </c>
       <c r="H14" t="s">
+        <v>183</v>
+      </c>
+      <c r="I14" t="s">
+        <v>103</v>
+      </c>
+      <c r="L14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" t="s">
+        <v>106</v>
+      </c>
+      <c r="P14">
+        <v>300</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I14" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" t="s">
-        <v>108</v>
-      </c>
-      <c r="M14" t="s">
-        <v>110</v>
-      </c>
-      <c r="O14">
-        <v>200</v>
-      </c>
-      <c r="P14">
-        <v>10</v>
-      </c>
-      <c r="W14" t="s">
-        <v>30</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
@@ -1781,39 +2681,45 @@
         <v>127</v>
       </c>
       <c r="F15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
       </c>
       <c r="I15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" t="s">
         <v>111</v>
       </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>115</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
+        <v>106</v>
+      </c>
+      <c r="R15" t="s">
+        <v>182</v>
+      </c>
+      <c r="S15" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="R15" t="s">
-        <v>113</v>
-      </c>
-      <c r="W15" t="s">
-        <v>30</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
@@ -1825,42 +2731,48 @@
         <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G16" t="s">
         <v>37</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="I16" t="s">
-        <v>119</v>
-      </c>
-      <c r="K16" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" t="s">
         <v>28</v>
       </c>
-      <c r="L16" t="s">
-        <v>126</v>
-      </c>
       <c r="M16" t="s">
-        <v>117</v>
-      </c>
-      <c r="P16">
+        <v>121</v>
+      </c>
+      <c r="N16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16">
         <v>10</v>
       </c>
-      <c r="W16" t="s">
+      <c r="S16" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y16" t="s">
         <v>30</v>
       </c>
-      <c r="X16" s="3" t="s">
+      <c r="Z16" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="AD16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
@@ -1878,39 +2790,60 @@
         <v>37</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="I17" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" t="s">
+        <v>123</v>
+      </c>
+      <c r="L17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" t="s">
         <v>127</v>
       </c>
-      <c r="J17" t="s">
-        <v>128</v>
-      </c>
-      <c r="K17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" t="s">
-        <v>129</v>
-      </c>
-      <c r="N17" t="s">
-        <v>132</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="Q17" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="R17" t="s">
         <v>30</v>
       </c>
-      <c r="X17" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S17" t="s">
+        <v>170</v>
+      </c>
+      <c r="U17" t="s">
+        <v>179</v>
+      </c>
+      <c r="V17" t="s">
+        <v>181</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" t="s">
-        <v>68</v>
       </c>
       <c r="C18" t="s">
         <v>51</v>
@@ -1928,33 +2861,39 @@
         <v>37</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
-      </c>
-      <c r="K18" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" t="s">
         <v>28</v>
       </c>
-      <c r="L18" t="s">
-        <v>134</v>
-      </c>
       <c r="M18" t="s">
+        <v>129</v>
+      </c>
+      <c r="N18" t="s">
         <v>28</v>
       </c>
-      <c r="W18" t="s">
+      <c r="P18">
+        <v>1000</v>
+      </c>
+      <c r="Y18" t="s">
         <v>30</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Z18" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C19" t="s">
         <v>51</v>
@@ -1972,36 +2911,48 @@
         <v>37</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
-      </c>
-      <c r="K19" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" t="s">
         <v>28</v>
       </c>
-      <c r="L19" t="s">
-        <v>137</v>
-      </c>
       <c r="M19" t="s">
+        <v>132</v>
+      </c>
+      <c r="N19" t="s">
         <v>28</v>
       </c>
       <c r="P19">
+        <v>900</v>
+      </c>
+      <c r="Q19">
         <v>8</v>
       </c>
-      <c r="V19" t="s">
-        <v>139</v>
-      </c>
-      <c r="W19" t="s">
+      <c r="R19" t="s">
         <v>30</v>
       </c>
-      <c r="X19" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S19" t="s">
+        <v>176</v>
+      </c>
+      <c r="X19" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
@@ -2019,33 +2970,48 @@
         <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I20" t="s">
-        <v>141</v>
-      </c>
-      <c r="K20" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" t="s">
         <v>28</v>
       </c>
       <c r="M20" t="s">
+        <v>175</v>
+      </c>
+      <c r="N20" t="s">
         <v>28</v>
       </c>
-      <c r="V20" t="s">
-        <v>139</v>
-      </c>
-      <c r="W20" t="s">
+      <c r="P20">
+        <v>500</v>
+      </c>
+      <c r="R20" t="s">
         <v>30</v>
       </c>
-      <c r="X20" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S20" t="s">
+        <v>170</v>
+      </c>
+      <c r="X20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
@@ -2063,36 +3029,51 @@
         <v>37</v>
       </c>
       <c r="H21" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="I21" t="s">
-        <v>143</v>
-      </c>
-      <c r="K21" t="s">
+        <v>137</v>
+      </c>
+      <c r="L21" t="s">
         <v>28</v>
       </c>
-      <c r="L21" t="s">
-        <v>135</v>
-      </c>
       <c r="M21" t="s">
+        <v>130</v>
+      </c>
+      <c r="N21" t="s">
         <v>28</v>
       </c>
-      <c r="P21" t="s">
+      <c r="O21" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q21" t="s">
         <v>29</v>
       </c>
-      <c r="W21" t="s">
+      <c r="R21" t="s">
         <v>30</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S21" t="s">
+        <v>48</v>
+      </c>
+      <c r="X21" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s">
         <v>71</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
@@ -2110,39 +3091,54 @@
         <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="I22" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="J22" t="s">
-        <v>146</v>
-      </c>
-      <c r="K22" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" t="s">
         <v>28</v>
       </c>
-      <c r="L22" t="s">
-        <v>134</v>
-      </c>
       <c r="M22" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22">
-        <v>250</v>
-      </c>
-      <c r="P22" t="s">
-        <v>147</v>
-      </c>
-      <c r="W22" t="s">
+        <v>167</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>166</v>
+      </c>
+      <c r="P22">
+        <v>300</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>141</v>
+      </c>
+      <c r="R22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="S22" t="s">
+        <v>48</v>
+      </c>
+      <c r="X22" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
         <v>51</v>
@@ -2160,39 +3156,60 @@
         <v>37</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I23" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J23" t="s">
-        <v>150</v>
-      </c>
-      <c r="K23" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" t="s">
         <v>28</v>
       </c>
-      <c r="L23" t="s">
-        <v>151</v>
-      </c>
       <c r="M23" t="s">
+        <v>129</v>
+      </c>
+      <c r="N23" t="s">
         <v>28</v>
       </c>
+      <c r="O23" t="s">
+        <v>164</v>
+      </c>
       <c r="P23">
-        <v>10</v>
-      </c>
-      <c r="W23" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q23">
         <v>30</v>
       </c>
-      <c r="X23" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="R23" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" t="s">
+        <v>170</v>
+      </c>
+      <c r="X23" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>51</v>
@@ -2210,28 +3227,1576 @@
         <v>37</v>
       </c>
       <c r="H24" t="s">
+        <v>161</v>
+      </c>
+      <c r="I24" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" t="s">
+        <v>148</v>
+      </c>
+      <c r="N24" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24">
+        <v>200</v>
+      </c>
+      <c r="Q24">
+        <v>20</v>
+      </c>
+      <c r="X24" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>238</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" t="s">
+        <v>152</v>
+      </c>
+      <c r="N25" t="s">
+        <v>28</v>
+      </c>
+      <c r="P25" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+      <c r="R25" t="s">
+        <v>30</v>
+      </c>
+      <c r="S25" t="s">
+        <v>154</v>
+      </c>
+      <c r="X25" t="s">
         <v>153</v>
       </c>
-      <c r="I24" t="s">
-        <v>154</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="Y25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>200</v>
+      </c>
+      <c r="G26" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="O26" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>205</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" t="s">
+        <v>253</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" t="s">
+        <v>258</v>
+      </c>
+      <c r="N27" t="s">
+        <v>202</v>
+      </c>
+      <c r="P27">
+        <v>800</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>254</v>
+      </c>
+      <c r="U27" t="s">
+        <v>255</v>
+      </c>
+      <c r="X27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>206</v>
+      </c>
+      <c r="B28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" t="s">
+        <v>260</v>
+      </c>
+      <c r="I28" t="s">
+        <v>261</v>
+      </c>
+      <c r="J28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>202</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>265</v>
+      </c>
+      <c r="P28">
+        <v>1000</v>
+      </c>
+      <c r="R28" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" t="s">
+        <v>267</v>
+      </c>
+      <c r="U28" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B29" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" t="s">
+        <v>268</v>
+      </c>
+      <c r="I29" t="s">
+        <v>269</v>
+      </c>
+      <c r="L29" t="s">
+        <v>202</v>
+      </c>
+      <c r="N29" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="U29" t="s">
+        <v>270</v>
+      </c>
+      <c r="X29" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>206</v>
+      </c>
+      <c r="B30" t="s">
+        <v>209</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" t="s">
+        <v>252</v>
+      </c>
+      <c r="H30" t="s">
+        <v>274</v>
+      </c>
+      <c r="I30" t="s">
+        <v>275</v>
+      </c>
+      <c r="J30" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" t="s">
+        <v>202</v>
+      </c>
+      <c r="M30" t="s">
+        <v>281</v>
+      </c>
+      <c r="N30" t="s">
+        <v>202</v>
+      </c>
+      <c r="P30" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q30">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s">
+        <v>189</v>
+      </c>
+      <c r="U30" t="s">
+        <v>280</v>
+      </c>
+      <c r="X30" t="s">
+        <v>282</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z30" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" t="s">
+        <v>210</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" t="s">
+        <v>283</v>
+      </c>
+      <c r="I31" t="s">
+        <v>345</v>
+      </c>
+      <c r="J31" t="s">
+        <v>284</v>
+      </c>
+      <c r="L31" t="s">
+        <v>202</v>
+      </c>
+      <c r="M31" t="s">
+        <v>285</v>
+      </c>
+      <c r="N31" t="s">
+        <v>202</v>
+      </c>
+      <c r="O31" t="s">
+        <v>287</v>
+      </c>
+      <c r="U31" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>278</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>206</v>
+      </c>
+      <c r="B32" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>200</v>
+      </c>
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" t="s">
+        <v>289</v>
+      </c>
+      <c r="J32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L32" t="s">
+        <v>202</v>
+      </c>
+      <c r="M32" t="s">
+        <v>290</v>
+      </c>
+      <c r="N32" t="s">
+        <v>294</v>
+      </c>
+      <c r="P32">
+        <v>200</v>
+      </c>
+      <c r="Q32">
+        <v>20</v>
+      </c>
+      <c r="U32" t="s">
+        <v>292</v>
+      </c>
+      <c r="X32" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B33" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" t="s">
+        <v>314</v>
+      </c>
+      <c r="I33" t="s">
+        <v>344</v>
+      </c>
+      <c r="L33" t="s">
+        <v>202</v>
+      </c>
+      <c r="M33" t="s">
+        <v>349</v>
+      </c>
+      <c r="N33" t="s">
+        <v>348</v>
+      </c>
+      <c r="O33" t="s">
+        <v>348</v>
+      </c>
+      <c r="P33">
+        <v>800</v>
+      </c>
+      <c r="Q33">
+        <v>25</v>
+      </c>
+      <c r="T33" t="s">
+        <v>347</v>
+      </c>
+      <c r="U33" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z33" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>206</v>
+      </c>
+      <c r="B34" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" t="s">
+        <v>252</v>
+      </c>
+      <c r="I34" t="s">
+        <v>352</v>
+      </c>
+      <c r="L34" t="s">
+        <v>202</v>
+      </c>
+      <c r="M34" t="s">
+        <v>349</v>
+      </c>
+      <c r="N34" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="U34" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z34" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>206</v>
+      </c>
+      <c r="B35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s">
+        <v>355</v>
+      </c>
+      <c r="L35" t="s">
         <v>28</v>
       </c>
-      <c r="L24" t="s">
-        <v>155</v>
-      </c>
-      <c r="M24" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24">
+      <c r="M35" t="s">
+        <v>333</v>
+      </c>
+      <c r="N35" t="s">
+        <v>358</v>
+      </c>
+      <c r="U35" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z35" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>200</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q36">
+        <v>10</v>
+      </c>
+      <c r="U36" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>200</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>315</v>
+      </c>
+      <c r="I37" t="s">
+        <v>361</v>
+      </c>
+      <c r="M37" t="s">
+        <v>362</v>
+      </c>
+      <c r="N37" t="s">
+        <v>364</v>
+      </c>
+      <c r="O37" t="s">
+        <v>365</v>
+      </c>
+      <c r="R37" t="s">
+        <v>182</v>
+      </c>
+      <c r="S37" t="s">
+        <v>188</v>
+      </c>
+      <c r="X37" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z37" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>200</v>
+      </c>
+      <c r="G38" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" t="s">
+        <v>316</v>
+      </c>
+      <c r="I38" t="s">
+        <v>366</v>
+      </c>
+      <c r="J38" t="s">
+        <v>367</v>
+      </c>
+      <c r="L38" t="s">
+        <v>202</v>
+      </c>
+      <c r="M38" t="s">
+        <v>370</v>
+      </c>
+      <c r="O38" t="s">
+        <v>368</v>
+      </c>
+      <c r="U38" t="s">
+        <v>369</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" t="s">
+        <v>317</v>
+      </c>
+      <c r="I39" t="s">
+        <v>344</v>
+      </c>
+      <c r="L39" t="s">
+        <v>202</v>
+      </c>
+      <c r="N39" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q39">
+        <v>35</v>
+      </c>
+      <c r="U39" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z39" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>343</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>200</v>
+      </c>
+      <c r="G40" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" t="s">
+        <v>318</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B41" t="s">
+        <v>220</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>200</v>
+      </c>
+      <c r="G41" t="s">
+        <v>37</v>
+      </c>
+      <c r="H41" t="s">
+        <v>319</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>206</v>
+      </c>
+      <c r="B42" t="s">
+        <v>221</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>200</v>
+      </c>
+      <c r="G42" t="s">
+        <v>321</v>
+      </c>
+      <c r="H42" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" t="s">
+        <v>222</v>
+      </c>
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" t="s">
+        <v>37</v>
+      </c>
+      <c r="H43" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>206</v>
+      </c>
+      <c r="B44" t="s">
+        <v>223</v>
+      </c>
+      <c r="C44" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" t="s">
+        <v>37</v>
+      </c>
+      <c r="H44" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" t="s">
+        <v>37</v>
+      </c>
+      <c r="H45" t="s">
+        <v>323</v>
+      </c>
+      <c r="AD45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>206</v>
+      </c>
+      <c r="B46" t="s">
+        <v>225</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46" t="s">
+        <v>199</v>
+      </c>
+      <c r="H46" t="s">
+        <v>324</v>
+      </c>
+      <c r="I46" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" t="s">
+        <v>226</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>200</v>
+      </c>
+      <c r="G47" t="s">
+        <v>37</v>
+      </c>
+      <c r="H47" t="s">
+        <v>326</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>206</v>
+      </c>
+      <c r="B48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>200</v>
+      </c>
+      <c r="G48" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" t="s">
+        <v>228</v>
+      </c>
+      <c r="C49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>200</v>
+      </c>
+      <c r="G49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>206</v>
+      </c>
+      <c r="B50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" t="s">
+        <v>199</v>
+      </c>
+      <c r="H50" t="s">
+        <v>327</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" t="s">
+        <v>230</v>
+      </c>
+      <c r="C51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" t="s">
+        <v>329</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" t="s">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>200</v>
+      </c>
+      <c r="G53" t="s">
+        <v>37</v>
+      </c>
+      <c r="H53" t="s">
+        <v>330</v>
+      </c>
+      <c r="AD53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>232</v>
+      </c>
+      <c r="B54" t="s">
+        <v>233</v>
+      </c>
+      <c r="C54" t="s">
+        <v>51</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>200</v>
+      </c>
+      <c r="G54" t="s">
+        <v>199</v>
+      </c>
+      <c r="H54" t="s">
+        <v>331</v>
+      </c>
+      <c r="I54" t="s">
+        <v>332</v>
+      </c>
+      <c r="M54" t="s">
+        <v>333</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>232</v>
+      </c>
+      <c r="B55" t="s">
+        <v>234</v>
+      </c>
+      <c r="C55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" t="s">
+        <v>37</v>
+      </c>
+      <c r="H55" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>235</v>
+      </c>
+      <c r="B56" t="s">
+        <v>236</v>
+      </c>
+      <c r="C56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>200</v>
+      </c>
+      <c r="G56" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" t="s">
+        <v>335</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>237</v>
+      </c>
+      <c r="B57" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>200</v>
+      </c>
+      <c r="G57" t="s">
+        <v>37</v>
+      </c>
+      <c r="H57" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>239</v>
+      </c>
+      <c r="B58" t="s">
+        <v>240</v>
+      </c>
+      <c r="C58" t="s">
+        <v>338</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
+        <v>200</v>
+      </c>
+      <c r="G58" t="s">
+        <v>199</v>
+      </c>
+      <c r="H58" t="s">
+        <v>337</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C59" t="s">
+        <v>338</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>200</v>
+      </c>
+      <c r="G59" t="s">
+        <v>321</v>
+      </c>
+      <c r="H59" t="s">
+        <v>339</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>200</v>
+      </c>
+      <c r="G60" t="s">
+        <v>37</v>
+      </c>
+      <c r="H60" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" t="s">
+        <v>51</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>200</v>
+      </c>
+      <c r="G61" t="s">
+        <v>37</v>
+      </c>
+      <c r="H61" t="s">
+        <v>341</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>244</v>
+      </c>
+      <c r="B62" t="s">
+        <v>245</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>200</v>
+      </c>
+      <c r="G62" t="s">
+        <v>199</v>
+      </c>
+      <c r="H62" t="s">
+        <v>342</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>246</v>
+      </c>
+      <c r="B63" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>102</v>
+      </c>
+      <c r="G63" t="s">
+        <v>252</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>248</v>
+      </c>
+      <c r="B64" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>200</v>
+      </c>
+      <c r="G64" t="s">
+        <v>37</v>
+      </c>
+      <c r="H64" t="s">
+        <v>312</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>303</v>
+      </c>
+      <c r="B65" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" t="s">
+        <v>51</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>200</v>
+      </c>
+      <c r="G65" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65" t="s">
+        <v>304</v>
+      </c>
+      <c r="I65" t="s">
+        <v>310</v>
+      </c>
+      <c r="J65" t="s">
+        <v>311</v>
+      </c>
+      <c r="L65" t="s">
+        <v>202</v>
+      </c>
+      <c r="M65" t="s">
+        <v>309</v>
+      </c>
+      <c r="N65" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>305</v>
+      </c>
+      <c r="R65" t="s">
+        <v>182</v>
+      </c>
+      <c r="S65" t="s">
+        <v>188</v>
+      </c>
+      <c r="U65" t="s">
+        <v>306</v>
+      </c>
+      <c r="X65" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z65" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>248</v>
+      </c>
+      <c r="B66" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>200</v>
+      </c>
+      <c r="G66" t="s">
+        <v>199</v>
+      </c>
+      <c r="H66" t="s">
+        <v>296</v>
+      </c>
+      <c r="I66" t="s">
+        <v>297</v>
+      </c>
+      <c r="J66" t="s">
+        <v>298</v>
+      </c>
+      <c r="L66" t="s">
+        <v>202</v>
+      </c>
+      <c r="M66" t="s">
+        <v>300</v>
+      </c>
+      <c r="N66" t="s">
+        <v>202</v>
+      </c>
+      <c r="P66">
+        <v>800</v>
+      </c>
+      <c r="Q66">
         <v>20</v>
       </c>
-      <c r="W24" t="s">
-        <v>30</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>43</v>
+      <c r="T66" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>299</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/Data/silvicsDataScraping.xlsx
+++ b/Data/silvicsDataScraping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\PhD_thesis\mast_trait\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD57B6F-A2CB-49B4-99B9-BEE728A28376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD706849-64D5-46A0-A2B7-0E689A50DB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="374">
   <si>
     <t>typeMonoOrDio</t>
   </si>
@@ -1443,6 +1443,10 @@
   </si>
   <si>
     <t>2000/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nutrientContent</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1788,12 +1792,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD66"/>
+  <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1806,8 +1810,8 @@
     <col min="6" max="6" width="16.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="10" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="9" max="10" width="22.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.08203125" customWidth="1"/>
     <col min="12" max="12" width="14.08203125" customWidth="1"/>
     <col min="13" max="13" width="31.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.58203125" bestFit="1" customWidth="1"/>
@@ -1816,14 +1820,15 @@
     <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="14.75" customWidth="1"/>
-    <col min="22" max="22" width="13.4140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.6640625" style="3"/>
-    <col min="27" max="27" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.58203125" style="3"/>
+    <col min="28" max="28" width="12.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1891,31 +1896,34 @@
         <v>4</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1967,23 +1975,23 @@
       <c r="S2" t="s">
         <v>48</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>30</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="AA2" s="3">
         <v>3</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>25</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2032,17 +2040,17 @@
       <c r="S3" t="s">
         <v>34</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>30</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2088,20 +2096,20 @@
       <c r="Q4">
         <v>40</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>30</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>38</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2147,17 +2155,17 @@
       <c r="Q5">
         <v>15</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>30</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="AA5" s="3">
         <v>2</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2209,20 +2217,20 @@
       <c r="S6" t="s">
         <v>48</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>30</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="AA6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>42</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2274,17 +2282,17 @@
       <c r="S7" t="s">
         <v>48</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>30</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="AA7" s="3">
         <v>3</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2333,14 +2341,14 @@
       <c r="R8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>30</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2386,20 +2394,20 @@
       <c r="R9" t="s">
         <v>189</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>30</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>85</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -2445,17 +2453,17 @@
       <c r="R10" t="s">
         <v>189</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>89</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>88</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -2504,17 +2512,17 @@
       <c r="S11" t="s">
         <v>188</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>30</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="AA11" s="3">
         <v>4</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2554,14 +2562,14 @@
       <c r="P12">
         <v>1000</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>30</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -2604,17 +2612,17 @@
       <c r="S13" t="s">
         <v>185</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>30</v>
       </c>
-      <c r="Z13" s="3" t="s">
+      <c r="AA13" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -2657,14 +2665,14 @@
       <c r="Q14">
         <v>10</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>30</v>
       </c>
-      <c r="Z14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -2704,17 +2712,17 @@
       <c r="S15" t="s">
         <v>109</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>30</v>
       </c>
-      <c r="Z15" s="3" t="s">
+      <c r="AA15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2757,17 +2765,17 @@
       <c r="S16" t="s">
         <v>109</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>30</v>
       </c>
-      <c r="Z16" s="3" t="s">
+      <c r="AA16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -2825,20 +2833,20 @@
       <c r="V17" t="s">
         <v>181</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>180</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>30</v>
       </c>
-      <c r="Z17" s="3" t="s">
+      <c r="AA17" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -2878,17 +2886,17 @@
       <c r="P18">
         <v>1000</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>30</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="AA18" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -2934,20 +2942,20 @@
       <c r="S19" t="s">
         <v>176</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>134</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>30</v>
       </c>
-      <c r="Z19" s="3" t="s">
+      <c r="AA19" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -2993,20 +3001,20 @@
       <c r="S20" t="s">
         <v>170</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>173</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>30</v>
       </c>
-      <c r="Z20" s="3" t="s">
+      <c r="AA20" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -3055,20 +3063,20 @@
       <c r="S21" t="s">
         <v>48</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>173</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>30</v>
       </c>
-      <c r="Z21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -3123,17 +3131,17 @@
       <c r="S22" t="s">
         <v>48</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>169</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>30</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -3188,23 +3196,23 @@
       <c r="S23" t="s">
         <v>170</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>165</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>30</v>
       </c>
-      <c r="Z23" s="3" t="s">
+      <c r="AA23" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>162</v>
       </c>
-      <c r="AC23" t="s">
+      <c r="AD23" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -3247,20 +3255,20 @@
       <c r="Q24">
         <v>20</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>160</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>30</v>
       </c>
-      <c r="Z24" s="3" t="s">
+      <c r="AA24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AD24" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -3309,23 +3317,23 @@
       <c r="S25" t="s">
         <v>154</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>153</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>30</v>
       </c>
-      <c r="Z25" s="3" t="s">
+      <c r="AA25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AD25" t="s">
         <v>151</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -3356,14 +3364,14 @@
       <c r="O26" t="s">
         <v>158</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>30</v>
       </c>
-      <c r="Z26" s="3" t="s">
+      <c r="AA26" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -3409,20 +3417,20 @@
       <c r="U27" t="s">
         <v>255</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>259</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>30</v>
       </c>
-      <c r="Z27" s="3" t="s">
+      <c r="AA27" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -3471,17 +3479,17 @@
       <c r="U28" t="s">
         <v>263</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>30</v>
       </c>
-      <c r="Z28" s="3" t="s">
+      <c r="AA28" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="AD28" t="s">
+      <c r="AE28" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>206</v>
       </c>
@@ -3518,17 +3526,17 @@
       <c r="U29" t="s">
         <v>270</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>273</v>
       </c>
-      <c r="AC29" t="s">
+      <c r="AD29" t="s">
         <v>272</v>
       </c>
-      <c r="AD29" t="s">
+      <c r="AE29" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>206</v>
       </c>
@@ -3577,23 +3585,23 @@
       <c r="U30" t="s">
         <v>280</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>282</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>30</v>
       </c>
-      <c r="Z30" s="3" t="s">
+      <c r="AA30" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="AC30" t="s">
+      <c r="AD30" t="s">
         <v>278</v>
       </c>
-      <c r="AD30" t="s">
+      <c r="AE30" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>206</v>
       </c>
@@ -3636,20 +3644,20 @@
       <c r="U31" t="s">
         <v>288</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>30</v>
       </c>
-      <c r="Z31" s="3" t="s">
+      <c r="AA31" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="AC31" t="s">
+      <c r="AD31" t="s">
         <v>278</v>
       </c>
-      <c r="AD31" t="s">
+      <c r="AE31" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -3692,20 +3700,20 @@
       <c r="U32" t="s">
         <v>292</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>291</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>30</v>
       </c>
-      <c r="Z32" s="3" t="s">
+      <c r="AA32" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="AD32" t="s">
+      <c r="AE32" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -3754,17 +3762,17 @@
       <c r="U33" t="s">
         <v>346</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>30</v>
       </c>
-      <c r="Z33" s="3" t="s">
+      <c r="AA33" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="AD33" t="s">
+      <c r="AE33" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -3801,17 +3809,17 @@
       <c r="U34" t="s">
         <v>354</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>30</v>
       </c>
-      <c r="Z34" s="3" t="s">
+      <c r="AA34" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="AD34" t="s">
+      <c r="AE34" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>206</v>
       </c>
@@ -3845,17 +3853,17 @@
       <c r="U35" t="s">
         <v>357</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>30</v>
       </c>
-      <c r="Z35" s="3" t="s">
+      <c r="AA35" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="AD35" t="s">
+      <c r="AE35" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>206</v>
       </c>
@@ -3883,11 +3891,11 @@
       <c r="U36" t="s">
         <v>360</v>
       </c>
-      <c r="AD36" t="s">
+      <c r="AE36" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>206</v>
       </c>
@@ -3927,20 +3935,20 @@
       <c r="S37" t="s">
         <v>188</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>363</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>182</v>
       </c>
-      <c r="Z37" s="3" t="s">
+      <c r="AA37" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="AD37" t="s">
+      <c r="AE37" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>206</v>
       </c>
@@ -3980,11 +3988,11 @@
       <c r="U38" t="s">
         <v>369</v>
       </c>
-      <c r="AD38" t="s">
+      <c r="AE38" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>206</v>
       </c>
@@ -4021,20 +4029,20 @@
       <c r="U39" t="s">
         <v>372</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>182</v>
       </c>
-      <c r="Z39" s="3" t="s">
+      <c r="AA39" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AC39" t="s">
         <v>343</v>
       </c>
-      <c r="AD39" t="s">
+      <c r="AE39" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>206</v>
       </c>
@@ -4056,11 +4064,11 @@
       <c r="H40" t="s">
         <v>318</v>
       </c>
-      <c r="AD40" t="s">
+      <c r="AE40" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>206</v>
       </c>
@@ -4082,11 +4090,11 @@
       <c r="H41" t="s">
         <v>319</v>
       </c>
-      <c r="AD41" t="s">
+      <c r="AE41" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>206</v>
       </c>
@@ -4108,11 +4116,11 @@
       <c r="H42" t="s">
         <v>320</v>
       </c>
-      <c r="AD42" t="s">
+      <c r="AE42" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>206</v>
       </c>
@@ -4134,11 +4142,11 @@
       <c r="H43" t="s">
         <v>296</v>
       </c>
-      <c r="AD43" t="s">
+      <c r="AE43" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>206</v>
       </c>
@@ -4160,11 +4168,11 @@
       <c r="H44" t="s">
         <v>322</v>
       </c>
-      <c r="AD44" t="s">
+      <c r="AE44" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>206</v>
       </c>
@@ -4186,11 +4194,11 @@
       <c r="H45" t="s">
         <v>323</v>
       </c>
-      <c r="AD45" t="s">
+      <c r="AE45" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>206</v>
       </c>
@@ -4215,11 +4223,11 @@
       <c r="I46" t="s">
         <v>325</v>
       </c>
-      <c r="AD46" t="s">
+      <c r="AE46" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -4241,11 +4249,11 @@
       <c r="H47" t="s">
         <v>326</v>
       </c>
-      <c r="AD47" t="s">
+      <c r="AE47" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>206</v>
       </c>
@@ -4264,11 +4272,11 @@
       <c r="G48" t="s">
         <v>37</v>
       </c>
-      <c r="AD48" t="s">
+      <c r="AE48" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>206</v>
       </c>
@@ -4287,11 +4295,11 @@
       <c r="G49" t="s">
         <v>37</v>
       </c>
-      <c r="AD49" t="s">
+      <c r="AE49" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>206</v>
       </c>
@@ -4313,11 +4321,11 @@
       <c r="H50" t="s">
         <v>327</v>
       </c>
-      <c r="AD50" t="s">
+      <c r="AE50" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>206</v>
       </c>
@@ -4339,11 +4347,11 @@
       <c r="H51" t="s">
         <v>328</v>
       </c>
-      <c r="AD51" t="s">
+      <c r="AE51" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>206</v>
       </c>
@@ -4365,11 +4373,11 @@
       <c r="H52" t="s">
         <v>329</v>
       </c>
-      <c r="AD52" t="s">
+      <c r="AE52" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>206</v>
       </c>
@@ -4391,11 +4399,11 @@
       <c r="H53" t="s">
         <v>330</v>
       </c>
-      <c r="AD53" t="s">
+      <c r="AE53" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>232</v>
       </c>
@@ -4423,11 +4431,11 @@
       <c r="M54" t="s">
         <v>333</v>
       </c>
-      <c r="AD54" t="s">
+      <c r="AE54" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>232</v>
       </c>
@@ -4449,11 +4457,11 @@
       <c r="H55" t="s">
         <v>334</v>
       </c>
-      <c r="AD55" t="s">
+      <c r="AE55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>235</v>
       </c>
@@ -4475,11 +4483,11 @@
       <c r="H56" t="s">
         <v>335</v>
       </c>
-      <c r="AD56" t="s">
+      <c r="AE56" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>237</v>
       </c>
@@ -4501,11 +4509,11 @@
       <c r="H57" t="s">
         <v>336</v>
       </c>
-      <c r="AD57" t="s">
+      <c r="AE57" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>239</v>
       </c>
@@ -4527,11 +4535,11 @@
       <c r="H58" t="s">
         <v>337</v>
       </c>
-      <c r="AD58" t="s">
+      <c r="AE58" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>239</v>
       </c>
@@ -4553,11 +4561,11 @@
       <c r="H59" t="s">
         <v>339</v>
       </c>
-      <c r="AD59" t="s">
+      <c r="AE59" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>242</v>
       </c>
@@ -4579,11 +4587,11 @@
       <c r="H60" t="s">
         <v>340</v>
       </c>
-      <c r="AD60" t="s">
+      <c r="AE60" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -4605,11 +4613,11 @@
       <c r="H61" t="s">
         <v>341</v>
       </c>
-      <c r="AD61" t="s">
+      <c r="AE61" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>244</v>
       </c>
@@ -4631,11 +4639,11 @@
       <c r="H62" t="s">
         <v>342</v>
       </c>
-      <c r="AD62" t="s">
+      <c r="AE62" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>246</v>
       </c>
@@ -4654,11 +4662,11 @@
       <c r="G63" t="s">
         <v>252</v>
       </c>
-      <c r="AD63" t="s">
+      <c r="AE63" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>248</v>
       </c>
@@ -4680,11 +4688,11 @@
       <c r="H64" t="s">
         <v>312</v>
       </c>
-      <c r="AD64" t="s">
+      <c r="AE64" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>303</v>
       </c>
@@ -4733,20 +4741,20 @@
       <c r="U65" t="s">
         <v>306</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>307</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>182</v>
       </c>
-      <c r="Z65" s="3" t="s">
+      <c r="AA65" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="AD65" t="s">
+      <c r="AE65" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>248</v>
       </c>
@@ -4792,10 +4800,10 @@
       <c r="T66" t="s">
         <v>302</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AC66" t="s">
         <v>299</v>
       </c>
-      <c r="AD66" t="s">
+      <c r="AE66" t="s">
         <v>187</v>
       </c>
     </row>

--- a/Data/silvicsDataScraping.xlsx
+++ b/Data/silvicsDataScraping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\PhD_thesis\mast_trait\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD706849-64D5-46A0-A2B7-0E689A50DB3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9056922-A628-4F78-AE9A-EECE09D8DACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vol1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="374">
   <si>
     <t>typeMonoOrDio</t>
   </si>
@@ -1795,9 +1795,9 @@
   <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="L31" sqref="L31:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3882,6 +3882,9 @@
       <c r="G36" t="s">
         <v>37</v>
       </c>
+      <c r="L36" t="s">
+        <v>28</v>
+      </c>
       <c r="M36" t="s">
         <v>359</v>
       </c>
@@ -3920,6 +3923,9 @@
       <c r="I37" t="s">
         <v>361</v>
       </c>
+      <c r="L37" t="s">
+        <v>28</v>
+      </c>
       <c r="M37" t="s">
         <v>362</v>
       </c>
@@ -3977,7 +3983,7 @@
         <v>367</v>
       </c>
       <c r="L38" t="s">
-        <v>202</v>
+        <v>28</v>
       </c>
       <c r="M38" t="s">
         <v>370</v>
@@ -4064,6 +4070,9 @@
       <c r="H40" t="s">
         <v>318</v>
       </c>
+      <c r="L40" t="s">
+        <v>28</v>
+      </c>
       <c r="AE40" t="s">
         <v>186</v>
       </c>
@@ -4090,6 +4099,9 @@
       <c r="H41" t="s">
         <v>319</v>
       </c>
+      <c r="L41" t="s">
+        <v>28</v>
+      </c>
       <c r="AE41" t="s">
         <v>184</v>
       </c>
@@ -4116,6 +4128,9 @@
       <c r="H42" t="s">
         <v>320</v>
       </c>
+      <c r="L42" t="s">
+        <v>28</v>
+      </c>
       <c r="AE42" t="s">
         <v>184</v>
       </c>
@@ -4142,6 +4157,9 @@
       <c r="H43" t="s">
         <v>296</v>
       </c>
+      <c r="L43" t="s">
+        <v>28</v>
+      </c>
       <c r="AE43" t="s">
         <v>184</v>
       </c>
@@ -4168,6 +4186,9 @@
       <c r="H44" t="s">
         <v>322</v>
       </c>
+      <c r="L44" t="s">
+        <v>28</v>
+      </c>
       <c r="AE44" t="s">
         <v>184</v>
       </c>
@@ -4194,6 +4215,9 @@
       <c r="H45" t="s">
         <v>323</v>
       </c>
+      <c r="L45" t="s">
+        <v>28</v>
+      </c>
       <c r="AE45" t="s">
         <v>186</v>
       </c>
@@ -4223,6 +4247,9 @@
       <c r="I46" t="s">
         <v>325</v>
       </c>
+      <c r="L46" t="s">
+        <v>28</v>
+      </c>
       <c r="AE46" t="s">
         <v>184</v>
       </c>
@@ -4249,6 +4276,9 @@
       <c r="H47" t="s">
         <v>326</v>
       </c>
+      <c r="L47" t="s">
+        <v>28</v>
+      </c>
       <c r="AE47" t="s">
         <v>184</v>
       </c>
@@ -4272,6 +4302,9 @@
       <c r="G48" t="s">
         <v>37</v>
       </c>
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
       <c r="AE48" t="s">
         <v>184</v>
       </c>
@@ -4295,6 +4328,9 @@
       <c r="G49" t="s">
         <v>37</v>
       </c>
+      <c r="L49" t="s">
+        <v>28</v>
+      </c>
       <c r="AE49" t="s">
         <v>184</v>
       </c>
@@ -4321,6 +4357,9 @@
       <c r="H50" t="s">
         <v>327</v>
       </c>
+      <c r="L50" t="s">
+        <v>28</v>
+      </c>
       <c r="AE50" t="s">
         <v>186</v>
       </c>
@@ -4347,6 +4386,9 @@
       <c r="H51" t="s">
         <v>328</v>
       </c>
+      <c r="L51" t="s">
+        <v>28</v>
+      </c>
       <c r="AE51" t="s">
         <v>184</v>
       </c>
@@ -4373,6 +4415,9 @@
       <c r="H52" t="s">
         <v>329</v>
       </c>
+      <c r="L52" t="s">
+        <v>28</v>
+      </c>
       <c r="AE52" t="s">
         <v>184</v>
       </c>
@@ -4399,6 +4444,9 @@
       <c r="H53" t="s">
         <v>330</v>
       </c>
+      <c r="L53" t="s">
+        <v>28</v>
+      </c>
       <c r="AE53" t="s">
         <v>184</v>
       </c>
@@ -4428,6 +4476,9 @@
       <c r="I54" t="s">
         <v>332</v>
       </c>
+      <c r="L54" t="s">
+        <v>28</v>
+      </c>
       <c r="M54" t="s">
         <v>333</v>
       </c>
@@ -4457,6 +4508,9 @@
       <c r="H55" t="s">
         <v>334</v>
       </c>
+      <c r="L55" t="s">
+        <v>28</v>
+      </c>
       <c r="AE55" t="s">
         <v>187</v>
       </c>
@@ -4483,6 +4537,9 @@
       <c r="H56" t="s">
         <v>335</v>
       </c>
+      <c r="L56" t="s">
+        <v>28</v>
+      </c>
       <c r="AE56" t="s">
         <v>187</v>
       </c>
@@ -4509,6 +4566,9 @@
       <c r="H57" t="s">
         <v>336</v>
       </c>
+      <c r="L57" t="s">
+        <v>28</v>
+      </c>
       <c r="AE57" t="s">
         <v>184</v>
       </c>
@@ -4535,6 +4595,9 @@
       <c r="H58" t="s">
         <v>337</v>
       </c>
+      <c r="L58" t="s">
+        <v>28</v>
+      </c>
       <c r="AE58" t="s">
         <v>186</v>
       </c>
@@ -4561,6 +4624,9 @@
       <c r="H59" t="s">
         <v>339</v>
       </c>
+      <c r="L59" t="s">
+        <v>28</v>
+      </c>
       <c r="AE59" t="s">
         <v>186</v>
       </c>
@@ -4587,6 +4653,9 @@
       <c r="H60" t="s">
         <v>340</v>
       </c>
+      <c r="L60" t="s">
+        <v>28</v>
+      </c>
       <c r="AE60" t="s">
         <v>187</v>
       </c>
@@ -4613,6 +4682,9 @@
       <c r="H61" t="s">
         <v>341</v>
       </c>
+      <c r="L61" t="s">
+        <v>28</v>
+      </c>
       <c r="AE61" t="s">
         <v>187</v>
       </c>
@@ -4639,6 +4711,9 @@
       <c r="H62" t="s">
         <v>342</v>
       </c>
+      <c r="L62" t="s">
+        <v>28</v>
+      </c>
       <c r="AE62" t="s">
         <v>187</v>
       </c>
@@ -4662,6 +4737,9 @@
       <c r="G63" t="s">
         <v>252</v>
       </c>
+      <c r="L63" t="s">
+        <v>28</v>
+      </c>
       <c r="AE63" t="s">
         <v>187</v>
       </c>
@@ -4687,6 +4765,9 @@
       </c>
       <c r="H64" t="s">
         <v>312</v>
+      </c>
+      <c r="L64" t="s">
+        <v>28</v>
       </c>
       <c r="AE64" t="s">
         <v>187</v>

--- a/Data/silvicsDataScraping.xlsx
+++ b/Data/silvicsDataScraping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\PhD_thesis\mast_trait\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9056922-A628-4F78-AE9A-EECE09D8DACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E53FC82-835A-4224-8E8D-FA64ECA1173E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vol1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="409">
   <si>
     <t>typeMonoOrDio</t>
   </si>
@@ -1447,6 +1447,146 @@
   </si>
   <si>
     <t>nutrientContent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>306000/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5 days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm, dry period during the early summer of the 2 years before strobilus emergence fabor production</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>59000/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cone beetles and rodents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind, squirrels, mice and birds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>most seeds fall within 120m of the parent tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct to Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57300/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Feb, southern part</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early April, nothern part</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>71% of sound seeds falling within a distance of 20 of the base of parent trees</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early May to mid-June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early Sep to Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insects, birds, rodents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>26500/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not disseminated naturally over extensive distances.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early March</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late March</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late March, low elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early May, high elevation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insects, rodent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insects, rodents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Aug to early Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1454,7 +1594,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1486,6 +1626,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1507,11 +1662,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1795,9 +1954,9 @@
   <dimension ref="A1:AE66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="L31" sqref="L31:L38"/>
+      <selection pane="bottomLeft" activeCell="AA63" sqref="AA63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3361,8 +3520,23 @@
       <c r="L26" t="s">
         <v>202</v>
       </c>
+      <c r="M26" t="s">
+        <v>374</v>
+      </c>
+      <c r="N26" t="s">
+        <v>28</v>
+      </c>
       <c r="O26" t="s">
         <v>158</v>
+      </c>
+      <c r="P26">
+        <v>400</v>
+      </c>
+      <c r="R26" t="s">
+        <v>88</v>
+      </c>
+      <c r="U26" t="s">
+        <v>375</v>
       </c>
       <c r="Z26" t="s">
         <v>30</v>
@@ -3579,9 +3753,6 @@
       <c r="Q30">
         <v>5</v>
       </c>
-      <c r="R30" t="s">
-        <v>189</v>
-      </c>
       <c r="U30" t="s">
         <v>280</v>
       </c>
@@ -4070,8 +4241,47 @@
       <c r="H40" t="s">
         <v>318</v>
       </c>
+      <c r="K40" t="s">
+        <v>376</v>
+      </c>
       <c r="L40" t="s">
         <v>28</v>
+      </c>
+      <c r="M40" t="s">
+        <v>124</v>
+      </c>
+      <c r="N40" t="s">
+        <v>380</v>
+      </c>
+      <c r="O40" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q40">
+        <v>7</v>
+      </c>
+      <c r="R40" t="s">
+        <v>30</v>
+      </c>
+      <c r="S40" t="s">
+        <v>170</v>
+      </c>
+      <c r="T40" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="U40" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>381</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA40" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>377</v>
       </c>
       <c r="AE40" t="s">
         <v>186</v>
@@ -4099,8 +4309,35 @@
       <c r="H41" t="s">
         <v>319</v>
       </c>
+      <c r="I41" t="s">
+        <v>116</v>
+      </c>
       <c r="L41" t="s">
         <v>28</v>
+      </c>
+      <c r="M41" t="s">
+        <v>382</v>
+      </c>
+      <c r="N41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>141</v>
+      </c>
+      <c r="R41" t="s">
+        <v>154</v>
+      </c>
+      <c r="T41" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="U41" t="s">
+        <v>383</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="AE41" t="s">
         <v>184</v>
@@ -4128,8 +4365,38 @@
       <c r="H42" t="s">
         <v>320</v>
       </c>
+      <c r="I42" t="s">
+        <v>384</v>
+      </c>
+      <c r="J42" t="s">
+        <v>385</v>
+      </c>
       <c r="L42" t="s">
         <v>28</v>
+      </c>
+      <c r="M42" t="s">
+        <v>382</v>
+      </c>
+      <c r="N42" t="s">
+        <v>28</v>
+      </c>
+      <c r="O42" t="s">
+        <v>158</v>
+      </c>
+      <c r="R42" t="s">
+        <v>154</v>
+      </c>
+      <c r="U42" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>387</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>386</v>
       </c>
       <c r="AE42" t="s">
         <v>184</v>
@@ -4157,8 +4424,35 @@
       <c r="H43" t="s">
         <v>296</v>
       </c>
+      <c r="I43" t="s">
+        <v>388</v>
+      </c>
+      <c r="K43" t="s">
+        <v>389</v>
+      </c>
       <c r="L43" t="s">
         <v>28</v>
+      </c>
+      <c r="M43" t="s">
+        <v>390</v>
+      </c>
+      <c r="O43" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q43">
+        <v>7</v>
+      </c>
+      <c r="U43" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>393</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="AE43" t="s">
         <v>184</v>
@@ -4186,8 +4480,23 @@
       <c r="H44" t="s">
         <v>322</v>
       </c>
+      <c r="I44" s="5" t="s">
+        <v>394</v>
+      </c>
       <c r="L44" t="s">
         <v>28</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="N44" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>154</v>
       </c>
       <c r="AE44" t="s">
         <v>184</v>
@@ -4215,8 +4524,20 @@
       <c r="H45" t="s">
         <v>323</v>
       </c>
+      <c r="I45" s="5" t="s">
+        <v>395</v>
+      </c>
       <c r="L45" t="s">
         <v>28</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="N45" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>30</v>
       </c>
       <c r="AE45" t="s">
         <v>186</v>
@@ -4250,6 +4571,21 @@
       <c r="L46" t="s">
         <v>28</v>
       </c>
+      <c r="M46" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="N46" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>371</v>
+      </c>
       <c r="AE46" t="s">
         <v>184</v>
       </c>
@@ -4276,8 +4612,29 @@
       <c r="H47" t="s">
         <v>326</v>
       </c>
+      <c r="I47" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="L47" t="s">
         <v>28</v>
+      </c>
+      <c r="M47" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="N47" t="s">
+        <v>28</v>
+      </c>
+      <c r="O47" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q47" s="7">
+        <v>45516</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>353</v>
       </c>
       <c r="AE47" t="s">
         <v>184</v>
@@ -4305,6 +4662,21 @@
       <c r="L48" t="s">
         <v>28</v>
       </c>
+      <c r="M48" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="N48" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q48" s="7">
+        <v>45590</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="AE48" t="s">
         <v>184</v>
       </c>
@@ -4331,6 +4703,18 @@
       <c r="L49" t="s">
         <v>28</v>
       </c>
+      <c r="M49" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="N49" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q49">
+        <v>10</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>30</v>
+      </c>
       <c r="AE49" t="s">
         <v>184</v>
       </c>
@@ -4357,8 +4741,29 @@
       <c r="H50" t="s">
         <v>327</v>
       </c>
+      <c r="I50" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="L50" t="s">
         <v>28</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="N50" t="s">
+        <v>28</v>
+      </c>
+      <c r="O50" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q50">
+        <v>10</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA50" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="AE50" t="s">
         <v>186</v>
@@ -4386,8 +4791,26 @@
       <c r="H51" t="s">
         <v>328</v>
       </c>
+      <c r="I51" s="6" t="s">
+        <v>396</v>
+      </c>
       <c r="L51" t="s">
         <v>28</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="N51" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q51" s="7">
+        <v>45580</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA51" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="AE51" t="s">
         <v>184</v>
@@ -4415,8 +4838,23 @@
       <c r="H52" t="s">
         <v>329</v>
       </c>
+      <c r="I52" s="6" t="s">
+        <v>397</v>
+      </c>
       <c r="L52" t="s">
         <v>28</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="N52" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="AE52" t="s">
         <v>184</v>
@@ -4444,8 +4882,26 @@
       <c r="H53" t="s">
         <v>330</v>
       </c>
+      <c r="I53" s="6" t="s">
+        <v>398</v>
+      </c>
       <c r="L53" t="s">
         <v>28</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="N53" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q53">
+        <v>5</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA53" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="AE53" t="s">
         <v>184</v>
@@ -4482,6 +4938,15 @@
       <c r="M54" t="s">
         <v>333</v>
       </c>
+      <c r="N54" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q54">
+        <v>40</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>30</v>
+      </c>
       <c r="AE54" t="s">
         <v>184</v>
       </c>
@@ -4508,8 +4973,20 @@
       <c r="H55" t="s">
         <v>334</v>
       </c>
+      <c r="I55" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="L55" t="s">
         <v>28</v>
+      </c>
+      <c r="N55" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>30</v>
       </c>
       <c r="AE55" t="s">
         <v>187</v>
@@ -4537,8 +5014,23 @@
       <c r="H56" t="s">
         <v>335</v>
       </c>
+      <c r="I56" s="6" t="s">
+        <v>396</v>
+      </c>
       <c r="L56" t="s">
         <v>28</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="N56" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q56" s="7">
+        <v>45427</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>30</v>
       </c>
       <c r="AE56" t="s">
         <v>187</v>
@@ -4566,8 +5058,26 @@
       <c r="H57" t="s">
         <v>336</v>
       </c>
+      <c r="I57" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="L57" t="s">
         <v>28</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="N57" t="s">
+        <v>28</v>
+      </c>
+      <c r="O57" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q57">
+        <v>10</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>30</v>
       </c>
       <c r="AE57" t="s">
         <v>184</v>
@@ -4595,8 +5105,23 @@
       <c r="H58" t="s">
         <v>337</v>
       </c>
+      <c r="I58" s="5" t="s">
+        <v>398</v>
+      </c>
       <c r="L58" t="s">
         <v>28</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="N58" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="AE58" t="s">
         <v>186</v>
@@ -4624,8 +5149,20 @@
       <c r="H59" t="s">
         <v>339</v>
       </c>
+      <c r="I59" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="L59" t="s">
         <v>28</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="N59" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>30</v>
       </c>
       <c r="AE59" t="s">
         <v>186</v>
@@ -4653,8 +5190,29 @@
       <c r="H60" t="s">
         <v>340</v>
       </c>
+      <c r="I60" s="5" t="s">
+        <v>261</v>
+      </c>
       <c r="L60" t="s">
         <v>28</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N60" t="s">
+        <v>28</v>
+      </c>
+      <c r="O60" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q60">
+        <v>6</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="AE60" t="s">
         <v>187</v>
@@ -4682,8 +5240,18 @@
       <c r="H61" t="s">
         <v>341</v>
       </c>
+      <c r="I61" s="6"/>
       <c r="L61" t="s">
         <v>28</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="N61" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>30</v>
       </c>
       <c r="AE61" t="s">
         <v>187</v>
@@ -4711,8 +5279,20 @@
       <c r="H62" t="s">
         <v>342</v>
       </c>
+      <c r="I62" s="6" t="s">
+        <v>261</v>
+      </c>
       <c r="L62" t="s">
         <v>28</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="N62" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>30</v>
       </c>
       <c r="AE62" t="s">
         <v>187</v>
@@ -4737,8 +5317,26 @@
       <c r="G63" t="s">
         <v>252</v>
       </c>
+      <c r="I63" s="5" t="s">
+        <v>352</v>
+      </c>
       <c r="L63" t="s">
         <v>28</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N63" t="s">
+        <v>28</v>
+      </c>
+      <c r="O63" t="s">
+        <v>391</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA63" s="3" t="s">
+        <v>408</v>
       </c>
       <c r="AE63" t="s">
         <v>187</v>
@@ -4768,6 +5366,12 @@
       </c>
       <c r="L64" t="s">
         <v>28</v>
+      </c>
+      <c r="N64" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>30</v>
       </c>
       <c r="AE64" t="s">
         <v>187</v>

--- a/Data/silvicsDataScraping.xlsx
+++ b/Data/silvicsDataScraping.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\PhD_thesis\mast_trait\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E53FC82-835A-4224-8E8D-FA64ECA1173E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86F920A-C926-4538-BA0A-25572F722E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vol1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vol2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="655">
   <si>
     <t>typeMonoOrDio</t>
   </si>
@@ -1587,6 +1589,945 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>forestType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acacia</t>
+  </si>
+  <si>
+    <t>koa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leguminosae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tropical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500-1800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>montane Hawaiian rain forest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauna Kea, December to February</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lower elevation, late winter to July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>throughout the year</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>not far from parent tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>barbatum</t>
+  </si>
+  <si>
+    <t>Aceraceae</t>
+  </si>
+  <si>
+    <t>soilType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fertile, moist, well drained</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>polygamo-dioecious</t>
+  </si>
+  <si>
+    <t>late march to April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hardwood forest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>colcanic soil, high nutrient, well drained, acidic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>macrophyllum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aceraceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>well drained alluvial and colluvial soil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society of American Foresters Type 221, 222, 223, 225, 229, 230, 231, 232, 233, 234, 244, 245</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low elevation or south, March</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high elevation and north, June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-12mm long, 4-9 mm thick</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seedWeight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6550/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intermediate</t>
+  </si>
+  <si>
+    <t>negundo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>all types</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>March to May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>from Oct until spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29500/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bottomland hardwoods, 42, 61, 62, 63, 87, 93, 94, 95, 109, 235, 236</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nigrum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moist soil of river bottom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalPrecipitation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>growingSeasonPrecipitation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>annualMinimumTemp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300-510</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-12--34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>610-1420</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixed hardwood forests, oak-hickory, maple-beech-birch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind and insects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vermont, first week in May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>other range, April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15500/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wings carry the seed considerable distances</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensylvanicum</t>
+  </si>
+  <si>
+    <t>Monoecious/dioecious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>550-860</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boreal hardwoods, spruce-fir, northern hardwood, 17, 20, 22, 23, 24,25, 28, 30, 31, 32, 35, 60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandy loams, moist and well drained</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24500/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moisture</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubrum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-900</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April to July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>extreme soil-moisture conditions either very wet or quite dry</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>108,19, 20, 28, 39</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>saccharinum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>saccharum</t>
+  </si>
+  <si>
+    <t>Aesculus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hippocastanaceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>octandra</t>
+  </si>
+  <si>
+    <t>Ailanthus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>altissima</t>
+  </si>
+  <si>
+    <t>Alnus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>glutinosa</t>
+  </si>
+  <si>
+    <t>rubra</t>
+  </si>
+  <si>
+    <t>Arbutus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Betula</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alleghaniensis</t>
+  </si>
+  <si>
+    <t>lenta</t>
+  </si>
+  <si>
+    <t>papyrifera</t>
+  </si>
+  <si>
+    <t>Calophyllum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>calaba</t>
+  </si>
+  <si>
+    <t>Carpinus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>caroliniana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>aquatica</t>
+  </si>
+  <si>
+    <t>cordiformis</t>
+  </si>
+  <si>
+    <t>glabra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>illinoensis</t>
+  </si>
+  <si>
+    <t>laciniosa</t>
+  </si>
+  <si>
+    <t>myristiciformis</t>
+  </si>
+  <si>
+    <t>ovata</t>
+  </si>
+  <si>
+    <t>tomentosa</t>
+  </si>
+  <si>
+    <t>Castanopsis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chrysophylla</t>
+  </si>
+  <si>
+    <t>Casuarina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cecropia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>peltata</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cedrela</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>odorata</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Celtis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>laevigata</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>occidentalis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cercis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>canadensis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cordia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alliodora</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>florida</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dacryodes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>excelsa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Didymopanax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>morototoni</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diospyros</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>virginiana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eucalyptus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>globulus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandis</t>
+  </si>
+  <si>
+    <t>robusta</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>saligna</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fagus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandifolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fraxinus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>americana</t>
+  </si>
+  <si>
+    <t>americana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>latifolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nigra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pennsylvanica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>profunda</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gleditsia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>triacanthos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gordonia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lasianthus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grevillea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halesia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>carolina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ilex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>opaca</t>
+  </si>
+  <si>
+    <t>Juglans</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cinerea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liquidambar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>styraciflua</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liriodendron</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tulipifera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithocarpus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>densiflorus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maclura</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pomifera</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acuminata</t>
+  </si>
+  <si>
+    <t>fraseri</t>
+  </si>
+  <si>
+    <t>grandiflora</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manilkara</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidentata</t>
+  </si>
+  <si>
+    <t>Melaleuca</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>quinquenervia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metrosideros</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>polymorpha</t>
+  </si>
+  <si>
+    <t>Morus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nyssa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ogeche</t>
+  </si>
+  <si>
+    <t>sylvatica var sylvatica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sylvatica var biflora</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ostrya</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oxydendrum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>arboreum</t>
+  </si>
+  <si>
+    <t>Paulownia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>borbonia</t>
+  </si>
+  <si>
+    <t>tomentosa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pithecellobium</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>saman</t>
+  </si>
+  <si>
+    <t>Platanus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Populus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>balsamifera</t>
+  </si>
+  <si>
+    <t>deltoides var deltoides</t>
+  </si>
+  <si>
+    <t>deltoides var occidentalis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>grandidentata</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heterophylla</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tremuloides</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>trichocarpa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prosopis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pallida</t>
+  </si>
+  <si>
+    <t>Prunus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pensylvanica</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>serotina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quercus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alba</t>
+  </si>
+  <si>
+    <t>bicolor</t>
+  </si>
+  <si>
+    <t>chrysolepis</t>
+  </si>
+  <si>
+    <t>coccinea</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>douglasii</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>falcata var falcata</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>falcata var pagodifolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>garryana</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kelloggii</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>laevis</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>laurifolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lyrata</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>macrocarpa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>michauxii</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>muehlenbergii</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nuttallii</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>palustris</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>phellos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>prinus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rubra</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>shumardii</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stellata</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>velutina</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robinia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pseudoacacia</t>
+  </si>
+  <si>
+    <t>Sabal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>palmetto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salix</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sassafras</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>albidum</t>
+  </si>
+  <si>
+    <t>Tabebuia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tilia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ulmus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alata</t>
+  </si>
+  <si>
+    <t>crassifolia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>thomasii</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Umbellularia</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>californica</t>
+  </si>
+  <si>
+    <t>annualMaximumTemp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>380-1020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>510-2030</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>well-drained loams, spodosols, alfisols, mollisols, abundant organic matter, strongly acid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27, 26, 25, 60, 28, 31, 16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15400/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>just before the leaves fall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wings allow it to be carried at least 100 m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>February to May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>alluvial soil, better-drained moist soil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>810-1520</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200-810</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>polygamo-monoecious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simaroubaceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Betulaceae</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1951,43 +2892,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE66"/>
+  <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="AA63" sqref="AA63"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="10" width="22.08203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.08203125" customWidth="1"/>
-    <col min="12" max="12" width="14.08203125" customWidth="1"/>
+    <col min="9" max="10" width="22.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.125" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
     <col min="13" max="13" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.58203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="14.75" customWidth="1"/>
-    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.33203125" customWidth="1"/>
-    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.375" customWidth="1"/>
+    <col min="24" max="24" width="12.375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="29" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.58203125" style="3"/>
-    <col min="28" max="28" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.625" style="3"/>
+    <col min="28" max="28" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2081,8 +3020,11 @@
       <c r="AE1" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AF1" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2150,7 +3092,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2209,7 +3151,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2268,7 +3210,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -2324,7 +3266,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -2389,7 +3331,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -2451,7 +3393,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -2507,7 +3449,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -2566,7 +3508,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -2622,7 +3564,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -2681,7 +3623,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -2728,7 +3670,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -2781,7 +3723,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -2831,7 +3773,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -2881,7 +3823,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2934,7 +3876,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -3005,7 +3947,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -3055,7 +3997,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -3114,7 +4056,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -3173,7 +4115,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -3235,7 +4177,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -3300,7 +4242,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -3371,7 +4313,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -3427,7 +4369,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -3492,7 +4434,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -3545,7 +4487,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -3604,7 +4546,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -3663,7 +4605,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>206</v>
       </c>
@@ -3710,7 +4652,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>206</v>
       </c>
@@ -3772,7 +4714,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>206</v>
       </c>
@@ -3828,7 +4770,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -3884,7 +4826,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -3943,7 +4885,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -3990,7 +4932,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>206</v>
       </c>
@@ -4034,7 +4976,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>206</v>
       </c>
@@ -4069,7 +5011,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>206</v>
       </c>
@@ -4125,7 +5067,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>206</v>
       </c>
@@ -4169,7 +5111,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>206</v>
       </c>
@@ -4219,7 +5161,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>206</v>
       </c>
@@ -4287,7 +5229,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>206</v>
       </c>
@@ -4343,7 +5285,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>206</v>
       </c>
@@ -4402,7 +5344,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>206</v>
       </c>
@@ -4458,7 +5400,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>206</v>
       </c>
@@ -4502,7 +5444,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>206</v>
       </c>
@@ -4543,7 +5485,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>206</v>
       </c>
@@ -4590,7 +5532,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -4640,7 +5582,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>206</v>
       </c>
@@ -4681,7 +5623,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>206</v>
       </c>
@@ -4719,7 +5661,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>206</v>
       </c>
@@ -4769,7 +5711,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>206</v>
       </c>
@@ -4816,7 +5758,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>206</v>
       </c>
@@ -4860,7 +5802,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>206</v>
       </c>
@@ -4907,7 +5849,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>232</v>
       </c>
@@ -4951,7 +5893,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>232</v>
       </c>
@@ -4992,7 +5934,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>235</v>
       </c>
@@ -5036,7 +5978,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>237</v>
       </c>
@@ -5083,7 +6025,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>239</v>
       </c>
@@ -5127,7 +6069,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>239</v>
       </c>
@@ -5168,7 +6110,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>242</v>
       </c>
@@ -5218,7 +6160,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -5257,7 +6199,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>244</v>
       </c>
@@ -5298,7 +6240,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>246</v>
       </c>
@@ -5342,7 +6284,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>248</v>
       </c>
@@ -5377,7 +6319,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>303</v>
       </c>
@@ -5439,7 +6381,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>248</v>
       </c>
@@ -5497,4 +6439,2028 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285299B4-E214-460B-9EDA-5409072924F0}">
+  <dimension ref="A1:AL130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5" customWidth="1"/>
+    <col min="36" max="36" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>413</v>
+      </c>
+      <c r="H2" t="s">
+        <v>414</v>
+      </c>
+      <c r="I2" t="s">
+        <v>416</v>
+      </c>
+      <c r="J2" t="s">
+        <v>417</v>
+      </c>
+      <c r="L2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" t="s">
+        <v>418</v>
+      </c>
+      <c r="N2" t="s">
+        <v>422</v>
+      </c>
+      <c r="R2" t="s">
+        <v>419</v>
+      </c>
+      <c r="S2" t="s">
+        <v>267</v>
+      </c>
+      <c r="W2" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>420</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>415</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>429</v>
+      </c>
+      <c r="M3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>430</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C4" t="s">
+        <v>434</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>437</v>
+      </c>
+      <c r="J4" t="s">
+        <v>438</v>
+      </c>
+      <c r="L4" t="s">
+        <v>158</v>
+      </c>
+      <c r="M4" t="s">
+        <v>333</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4">
+        <v>200</v>
+      </c>
+      <c r="Q4">
+        <v>10</v>
+      </c>
+      <c r="U4" t="s">
+        <v>440</v>
+      </c>
+      <c r="V4" t="s">
+        <v>442</v>
+      </c>
+      <c r="W4" t="s">
+        <v>444</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>439</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>445</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>436</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>432</v>
+      </c>
+      <c r="B5" t="s">
+        <v>446</v>
+      </c>
+      <c r="C5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>448</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>450</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="R5" t="s">
+        <v>419</v>
+      </c>
+      <c r="V5" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>439</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>452</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s">
+        <v>464</v>
+      </c>
+      <c r="J6" t="s">
+        <v>465</v>
+      </c>
+      <c r="L6" t="s">
+        <v>463</v>
+      </c>
+      <c r="M6" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" t="s">
+        <v>455</v>
+      </c>
+      <c r="P6">
+        <v>200</v>
+      </c>
+      <c r="R6" t="s">
+        <v>419</v>
+      </c>
+      <c r="S6" t="s">
+        <v>474</v>
+      </c>
+      <c r="V6" t="s">
+        <v>466</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>467</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>454</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>459</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C7" t="s">
+        <v>434</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>470</v>
+      </c>
+      <c r="I7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q7">
+        <v>11</v>
+      </c>
+      <c r="R7" t="s">
+        <v>419</v>
+      </c>
+      <c r="S7" t="s">
+        <v>474</v>
+      </c>
+      <c r="V7" t="s">
+        <v>473</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>471</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" t="s">
+        <v>475</v>
+      </c>
+      <c r="C8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>428</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>476</v>
+      </c>
+      <c r="I8" t="s">
+        <v>448</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>477</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8">
+        <v>150</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s">
+        <v>439</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB8">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>479</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>478</v>
+      </c>
+      <c r="AK8">
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>648</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" t="s">
+        <v>325</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" t="s">
+        <v>439</v>
+      </c>
+      <c r="V9">
+        <v>3920</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>650</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B10" t="s">
+        <v>481</v>
+      </c>
+      <c r="C10" t="s">
+        <v>434</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>428</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>429</v>
+      </c>
+      <c r="L10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" t="s">
+        <v>646</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>419</v>
+      </c>
+      <c r="S10" t="s">
+        <v>474</v>
+      </c>
+      <c r="T10" s="4">
+        <v>0.95</v>
+      </c>
+      <c r="V10" t="s">
+        <v>645</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>647</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>419</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>644</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>643</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>642</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>641</v>
+      </c>
+      <c r="AK10">
+        <v>-40</v>
+      </c>
+      <c r="AL10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" t="s">
+        <v>483</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>652</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>482</v>
+      </c>
+      <c r="B12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>652</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C13" t="s">
+        <v>653</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" t="s">
+        <v>654</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>487</v>
+      </c>
+      <c r="B15" t="s">
+        <v>489</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>490</v>
+      </c>
+      <c r="B16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>491</v>
+      </c>
+      <c r="B17" t="s">
+        <v>492</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>491</v>
+      </c>
+      <c r="B18" t="s">
+        <v>493</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>491</v>
+      </c>
+      <c r="B19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>491</v>
+      </c>
+      <c r="B20" t="s">
+        <v>494</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>495</v>
+      </c>
+      <c r="B21" t="s">
+        <v>496</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>497</v>
+      </c>
+      <c r="B22" t="s">
+        <v>498</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23" t="s">
+        <v>500</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24" t="s">
+        <v>501</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>499</v>
+      </c>
+      <c r="B25" t="s">
+        <v>502</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>499</v>
+      </c>
+      <c r="B26" t="s">
+        <v>503</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>499</v>
+      </c>
+      <c r="B27" t="s">
+        <v>504</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>499</v>
+      </c>
+      <c r="B28" t="s">
+        <v>505</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>499</v>
+      </c>
+      <c r="B29" t="s">
+        <v>506</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>499</v>
+      </c>
+      <c r="B30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>508</v>
+      </c>
+      <c r="B31" t="s">
+        <v>509</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>510</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>511</v>
+      </c>
+      <c r="B33" t="s">
+        <v>512</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>513</v>
+      </c>
+      <c r="B34" t="s">
+        <v>514</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>515</v>
+      </c>
+      <c r="B35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>515</v>
+      </c>
+      <c r="B36" t="s">
+        <v>517</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>518</v>
+      </c>
+      <c r="B37" t="s">
+        <v>519</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>520</v>
+      </c>
+      <c r="B38" t="s">
+        <v>521</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>522</v>
+      </c>
+      <c r="B39" t="s">
+        <v>523</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>524</v>
+      </c>
+      <c r="B40" t="s">
+        <v>525</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>526</v>
+      </c>
+      <c r="B41" t="s">
+        <v>527</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>528</v>
+      </c>
+      <c r="B42" t="s">
+        <v>529</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>530</v>
+      </c>
+      <c r="B43" t="s">
+        <v>531</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>530</v>
+      </c>
+      <c r="B44" t="s">
+        <v>532</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>530</v>
+      </c>
+      <c r="B45" t="s">
+        <v>533</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>530</v>
+      </c>
+      <c r="B46" t="s">
+        <v>534</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>535</v>
+      </c>
+      <c r="B47" t="s">
+        <v>536</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>537</v>
+      </c>
+      <c r="B48" t="s">
+        <v>539</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>537</v>
+      </c>
+      <c r="B49" t="s">
+        <v>540</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>537</v>
+      </c>
+      <c r="B50" t="s">
+        <v>541</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>537</v>
+      </c>
+      <c r="B51" t="s">
+        <v>542</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>537</v>
+      </c>
+      <c r="B52" t="s">
+        <v>543</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>544</v>
+      </c>
+      <c r="B53" t="s">
+        <v>545</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>546</v>
+      </c>
+      <c r="B54" t="s">
+        <v>547</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>548</v>
+      </c>
+      <c r="B55" t="s">
+        <v>533</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>549</v>
+      </c>
+      <c r="B56" t="s">
+        <v>550</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>551</v>
+      </c>
+      <c r="B57" t="s">
+        <v>552</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>553</v>
+      </c>
+      <c r="B58" t="s">
+        <v>554</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>553</v>
+      </c>
+      <c r="B59" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>555</v>
+      </c>
+      <c r="B60" t="s">
+        <v>556</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>557</v>
+      </c>
+      <c r="B61" t="s">
+        <v>558</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>559</v>
+      </c>
+      <c r="B62" t="s">
+        <v>560</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>561</v>
+      </c>
+      <c r="B63" t="s">
+        <v>562</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>563</v>
+      </c>
+      <c r="B64" t="s">
+        <v>564</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>563</v>
+      </c>
+      <c r="B65" t="s">
+        <v>565</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>563</v>
+      </c>
+      <c r="B66" t="s">
+        <v>566</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>563</v>
+      </c>
+      <c r="B67" t="s">
+        <v>529</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>567</v>
+      </c>
+      <c r="B68" t="s">
+        <v>568</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>569</v>
+      </c>
+      <c r="B69" t="s">
+        <v>570</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>571</v>
+      </c>
+      <c r="B70" t="s">
+        <v>572</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>573</v>
+      </c>
+      <c r="B71" t="s">
+        <v>489</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>574</v>
+      </c>
+      <c r="B72" t="s">
+        <v>500</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>574</v>
+      </c>
+      <c r="B73" t="s">
+        <v>575</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>574</v>
+      </c>
+      <c r="B74" t="s">
+        <v>576</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>574</v>
+      </c>
+      <c r="B75" t="s">
+        <v>577</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>578</v>
+      </c>
+      <c r="B76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>579</v>
+      </c>
+      <c r="B77" t="s">
+        <v>580</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>581</v>
+      </c>
+      <c r="B78" t="s">
+        <v>584</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>582</v>
+      </c>
+      <c r="B79" t="s">
+        <v>583</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>585</v>
+      </c>
+      <c r="B80" t="s">
+        <v>586</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>587</v>
+      </c>
+      <c r="B81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>588</v>
+      </c>
+      <c r="B82" t="s">
+        <v>589</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>588</v>
+      </c>
+      <c r="B83" t="s">
+        <v>590</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>588</v>
+      </c>
+      <c r="B84" t="s">
+        <v>591</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>588</v>
+      </c>
+      <c r="B85" t="s">
+        <v>592</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>588</v>
+      </c>
+      <c r="B86" t="s">
+        <v>593</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>588</v>
+      </c>
+      <c r="B87" t="s">
+        <v>594</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>588</v>
+      </c>
+      <c r="B88" t="s">
+        <v>595</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>596</v>
+      </c>
+      <c r="B89" t="s">
+        <v>597</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>598</v>
+      </c>
+      <c r="B90" t="s">
+        <v>599</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>598</v>
+      </c>
+      <c r="B91" t="s">
+        <v>600</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>601</v>
+      </c>
+      <c r="B92" t="s">
+        <v>602</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>601</v>
+      </c>
+      <c r="B93" t="s">
+        <v>603</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>601</v>
+      </c>
+      <c r="B94" t="s">
+        <v>604</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>601</v>
+      </c>
+      <c r="B95" t="s">
+        <v>605</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>601</v>
+      </c>
+      <c r="B96" t="s">
+        <v>606</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>601</v>
+      </c>
+      <c r="B97" t="s">
+        <v>607</v>
+      </c>
+      <c r="D97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>601</v>
+      </c>
+      <c r="B98" t="s">
+        <v>608</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>601</v>
+      </c>
+      <c r="B99" t="s">
+        <v>609</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>601</v>
+      </c>
+      <c r="B100" t="s">
+        <v>610</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>601</v>
+      </c>
+      <c r="B101" t="s">
+        <v>611</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>601</v>
+      </c>
+      <c r="B102" t="s">
+        <v>612</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>601</v>
+      </c>
+      <c r="B103" t="s">
+        <v>613</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>601</v>
+      </c>
+      <c r="B104" t="s">
+        <v>614</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>601</v>
+      </c>
+      <c r="B105" t="s">
+        <v>615</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>601</v>
+      </c>
+      <c r="B106" t="s">
+        <v>616</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>601</v>
+      </c>
+      <c r="B107" t="s">
+        <v>541</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>601</v>
+      </c>
+      <c r="B108" t="s">
+        <v>617</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>601</v>
+      </c>
+      <c r="B109" t="s">
+        <v>618</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>601</v>
+      </c>
+      <c r="B110" t="s">
+        <v>619</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>601</v>
+      </c>
+      <c r="B111" t="s">
+        <v>620</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>601</v>
+      </c>
+      <c r="B112" t="s">
+        <v>621</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>601</v>
+      </c>
+      <c r="B113" t="s">
+        <v>622</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>601</v>
+      </c>
+      <c r="B114" t="s">
+        <v>623</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>601</v>
+      </c>
+      <c r="B115" t="s">
+        <v>624</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>601</v>
+      </c>
+      <c r="B116" t="s">
+        <v>529</v>
+      </c>
+      <c r="D116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>625</v>
+      </c>
+      <c r="B117" t="s">
+        <v>626</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>627</v>
+      </c>
+      <c r="B118" t="s">
+        <v>628</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>629</v>
+      </c>
+      <c r="B119" t="s">
+        <v>220</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>630</v>
+      </c>
+      <c r="B120" t="s">
+        <v>631</v>
+      </c>
+      <c r="D120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>632</v>
+      </c>
+      <c r="B121" t="s">
+        <v>250</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>633</v>
+      </c>
+      <c r="B122" t="s">
+        <v>538</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>633</v>
+      </c>
+      <c r="B123" t="s">
+        <v>250</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>634</v>
+      </c>
+      <c r="B124" t="s">
+        <v>635</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>634</v>
+      </c>
+      <c r="B125" t="s">
+        <v>539</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>634</v>
+      </c>
+      <c r="B126" t="s">
+        <v>636</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>634</v>
+      </c>
+      <c r="B127" t="s">
+        <v>621</v>
+      </c>
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>634</v>
+      </c>
+      <c r="B128" t="s">
+        <v>600</v>
+      </c>
+      <c r="D128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>634</v>
+      </c>
+      <c r="B129" t="s">
+        <v>637</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>638</v>
+      </c>
+      <c r="B130" t="s">
+        <v>639</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" display="https://www.srs.fs.usda.gov/pubs/misc/ag_654/volume_2/aesculus/octandra.htm" xr:uid="{879FBFDC-984B-4425-A715-8A860C17E18E}"/>
+    <hyperlink ref="A15" r:id="rId2" display="https://www.srs.fs.usda.gov/pubs/misc/ag_654/volume_2/alnus/rubra.htm" xr:uid="{0C8193B6-C85D-4B00-8037-650155DFD578}"/>
+    <hyperlink ref="A19" r:id="rId3" display="https://www.srs.fs.usda.gov/pubs/misc/ag_654/volume_2/betula/nigra.htm" xr:uid="{CAF2CCFB-2224-4FCA-8BA3-30D243572E5B}"/>
+    <hyperlink ref="A78" r:id="rId4" display="https://www.srs.fs.usda.gov/pubs/misc/ag_654/volume_2/paulownia/tomentosa.htm" xr:uid="{0DCF1D0C-52B0-4231-AC3D-719F2F489B78}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/silvicsDataScraping.xlsx
+++ b/Data/silvicsDataScraping.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\PhD_thesis\mast_trait\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86F920A-C926-4538-BA0A-25572F722E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FA00FD-ED9E-48F1-97B9-4A15F6736CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vol1" sheetId="1" r:id="rId1"/>
     <sheet name="Vol2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="668">
   <si>
     <t>typeMonoOrDio</t>
   </si>
@@ -2528,6 +2527,58 @@
   </si>
   <si>
     <t>Betulaceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ericaceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calophyllaceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polygamous</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temperate/subtropical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juglandaceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>subtropical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fagaceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casuarinaceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monoecious and dioecious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moraceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meliaceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ulmaceae</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polygamo-monoecious</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2898,35 +2949,35 @@
       <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.08203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="10" width="22.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.125" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="9" max="10" width="22.08203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.08203125" customWidth="1"/>
+    <col min="12" max="12" width="14.08203125" customWidth="1"/>
     <col min="13" max="13" width="31.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.58203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.25" customWidth="1"/>
-    <col min="16" max="16" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="14.75" customWidth="1"/>
-    <col min="22" max="22" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.375" customWidth="1"/>
-    <col min="24" max="24" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.33203125" customWidth="1"/>
+    <col min="24" max="24" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="29" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.625" style="3"/>
-    <col min="28" max="28" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.58203125" style="3"/>
+    <col min="28" max="28" width="12.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -3024,7 +3075,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -3092,7 +3143,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -3151,7 +3202,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3210,7 +3261,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -3266,7 +3317,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -3331,7 +3382,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3393,7 +3444,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3449,7 +3500,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3508,7 +3559,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -3564,7 +3615,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -3623,7 +3674,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3670,7 +3721,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -3723,7 +3774,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -3773,7 +3824,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -3823,7 +3874,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -3876,7 +3927,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -3947,7 +3998,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -3997,7 +4048,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -4056,7 +4107,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -4115,7 +4166,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>69</v>
       </c>
@@ -4177,7 +4228,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>69</v>
       </c>
@@ -4242,7 +4293,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -4313,7 +4364,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>69</v>
       </c>
@@ -4369,7 +4420,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -4434,7 +4485,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -4487,7 +4538,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>69</v>
       </c>
@@ -4546,7 +4597,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -4605,7 +4656,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>206</v>
       </c>
@@ -4652,7 +4703,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>206</v>
       </c>
@@ -4714,7 +4765,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>206</v>
       </c>
@@ -4770,7 +4821,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>206</v>
       </c>
@@ -4826,7 +4877,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>206</v>
       </c>
@@ -4885,7 +4936,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>206</v>
       </c>
@@ -4932,7 +4983,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>206</v>
       </c>
@@ -4976,7 +5027,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>206</v>
       </c>
@@ -5011,7 +5062,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>206</v>
       </c>
@@ -5067,7 +5118,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>206</v>
       </c>
@@ -5111,7 +5162,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>206</v>
       </c>
@@ -5161,7 +5212,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>206</v>
       </c>
@@ -5229,7 +5280,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>206</v>
       </c>
@@ -5285,7 +5336,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>206</v>
       </c>
@@ -5344,7 +5395,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>206</v>
       </c>
@@ -5400,7 +5451,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>206</v>
       </c>
@@ -5444,7 +5495,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>206</v>
       </c>
@@ -5485,7 +5536,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>206</v>
       </c>
@@ -5532,7 +5583,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -5582,7 +5633,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>206</v>
       </c>
@@ -5623,7 +5674,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>206</v>
       </c>
@@ -5661,7 +5712,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>206</v>
       </c>
@@ -5711,7 +5762,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>206</v>
       </c>
@@ -5758,7 +5809,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>206</v>
       </c>
@@ -5802,7 +5853,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>206</v>
       </c>
@@ -5849,7 +5900,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>232</v>
       </c>
@@ -5893,7 +5944,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>232</v>
       </c>
@@ -5934,7 +5985,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>235</v>
       </c>
@@ -5978,7 +6029,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>237</v>
       </c>
@@ -6025,7 +6076,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>239</v>
       </c>
@@ -6069,7 +6120,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>239</v>
       </c>
@@ -6110,7 +6161,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>242</v>
       </c>
@@ -6160,7 +6211,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>244</v>
       </c>
@@ -6199,7 +6250,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>244</v>
       </c>
@@ -6240,7 +6291,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>246</v>
       </c>
@@ -6284,7 +6335,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>248</v>
       </c>
@@ -6319,7 +6370,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>303</v>
       </c>
@@ -6381,7 +6432,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>248</v>
       </c>
@@ -6445,21 +6496,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285299B4-E214-460B-9EDA-5409072924F0}">
   <dimension ref="A1:AL130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="12.08203125" customWidth="1"/>
     <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="15.5" customWidth="1"/>
-    <col min="36" max="36" width="25.625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="25.58203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="20.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -6575,7 +6626,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>410</v>
       </c>
@@ -6637,7 +6688,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>423</v>
       </c>
@@ -6672,7 +6723,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>432</v>
       </c>
@@ -6731,7 +6782,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>432</v>
       </c>
@@ -6784,7 +6835,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>432</v>
       </c>
@@ -6855,7 +6906,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>432</v>
       </c>
@@ -6905,7 +6956,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>432</v>
       </c>
@@ -6967,7 +7018,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>432</v>
       </c>
@@ -7017,7 +7068,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>432</v>
       </c>
@@ -7091,7 +7142,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>482</v>
       </c>
@@ -7111,7 +7162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>482</v>
       </c>
@@ -7131,7 +7182,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>485</v>
       </c>
@@ -7151,7 +7202,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>487</v>
       </c>
@@ -7171,13 +7222,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>487</v>
       </c>
       <c r="B15" t="s">
         <v>489</v>
       </c>
+      <c r="C15" t="s">
+        <v>654</v>
+      </c>
       <c r="D15">
         <v>2</v>
       </c>
@@ -7188,13 +7242,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>490</v>
       </c>
       <c r="B16" t="s">
         <v>234</v>
       </c>
+      <c r="C16" t="s">
+        <v>655</v>
+      </c>
       <c r="D16">
         <v>2</v>
       </c>
@@ -7202,224 +7259,383 @@
         <v>419</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>491</v>
       </c>
       <c r="B17" t="s">
         <v>492</v>
       </c>
+      <c r="C17" t="s">
+        <v>654</v>
+      </c>
       <c r="D17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>491</v>
       </c>
       <c r="B18" t="s">
         <v>493</v>
       </c>
+      <c r="C18" t="s">
+        <v>654</v>
+      </c>
       <c r="D18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>491</v>
       </c>
       <c r="B19" t="s">
         <v>220</v>
       </c>
+      <c r="C19" t="s">
+        <v>654</v>
+      </c>
       <c r="D19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>491</v>
       </c>
       <c r="B20" t="s">
         <v>494</v>
       </c>
+      <c r="C20" t="s">
+        <v>654</v>
+      </c>
       <c r="D20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>495</v>
       </c>
       <c r="B21" t="s">
         <v>496</v>
       </c>
+      <c r="C21" t="s">
+        <v>656</v>
+      </c>
       <c r="D21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>657</v>
+      </c>
+      <c r="G21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>497</v>
       </c>
       <c r="B22" t="s">
         <v>498</v>
       </c>
+      <c r="C22" t="s">
+        <v>654</v>
+      </c>
       <c r="D22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>499</v>
       </c>
       <c r="B23" t="s">
         <v>500</v>
       </c>
+      <c r="C23" t="s">
+        <v>659</v>
+      </c>
       <c r="D23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>499</v>
       </c>
       <c r="B24" t="s">
         <v>501</v>
       </c>
+      <c r="C24" t="s">
+        <v>659</v>
+      </c>
       <c r="D24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>499</v>
       </c>
       <c r="B25" t="s">
         <v>502</v>
       </c>
+      <c r="C25" t="s">
+        <v>659</v>
+      </c>
       <c r="D25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>499</v>
       </c>
       <c r="B26" t="s">
         <v>503</v>
       </c>
+      <c r="C26" t="s">
+        <v>659</v>
+      </c>
       <c r="D26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>499</v>
       </c>
       <c r="B27" t="s">
         <v>504</v>
       </c>
+      <c r="C27" t="s">
+        <v>659</v>
+      </c>
       <c r="D27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>499</v>
       </c>
       <c r="B28" t="s">
         <v>505</v>
       </c>
+      <c r="C28" t="s">
+        <v>659</v>
+      </c>
       <c r="D28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>499</v>
       </c>
       <c r="B29" t="s">
         <v>506</v>
       </c>
+      <c r="C29" t="s">
+        <v>659</v>
+      </c>
       <c r="D29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>499</v>
       </c>
       <c r="B30" t="s">
         <v>507</v>
       </c>
+      <c r="C30" t="s">
+        <v>659</v>
+      </c>
       <c r="D30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>508</v>
       </c>
       <c r="B31" t="s">
         <v>509</v>
       </c>
+      <c r="C31" t="s">
+        <v>661</v>
+      </c>
       <c r="D31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>510</v>
       </c>
+      <c r="C32" t="s">
+        <v>662</v>
+      </c>
       <c r="D32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>511</v>
       </c>
       <c r="B33" t="s">
         <v>512</v>
       </c>
+      <c r="C33" t="s">
+        <v>664</v>
+      </c>
       <c r="D33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>513</v>
       </c>
       <c r="B34" t="s">
         <v>514</v>
       </c>
+      <c r="C34" t="s">
+        <v>665</v>
+      </c>
       <c r="D34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>515</v>
       </c>
       <c r="B35" t="s">
         <v>516</v>
       </c>
+      <c r="C35" t="s">
+        <v>666</v>
+      </c>
       <c r="D35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>515</v>
       </c>
       <c r="B36" t="s">
         <v>517</v>
       </c>
+      <c r="C36" t="s">
+        <v>666</v>
+      </c>
       <c r="D36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>518</v>
       </c>
@@ -7430,7 +7646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>520</v>
       </c>
@@ -7441,7 +7657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>522</v>
       </c>
@@ -7452,7 +7668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>524</v>
       </c>
@@ -7463,7 +7679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>526</v>
       </c>
@@ -7474,7 +7690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>528</v>
       </c>
@@ -7485,7 +7701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>530</v>
       </c>
@@ -7496,7 +7712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>530</v>
       </c>
@@ -7507,7 +7723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>530</v>
       </c>
@@ -7518,7 +7734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>530</v>
       </c>
@@ -7529,7 +7745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>535</v>
       </c>
@@ -7540,7 +7756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>537</v>
       </c>
@@ -7551,7 +7767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>537</v>
       </c>
@@ -7562,7 +7778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>537</v>
       </c>
@@ -7573,7 +7789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>537</v>
       </c>
@@ -7584,7 +7800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>537</v>
       </c>
@@ -7595,7 +7811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>544</v>
       </c>
@@ -7606,7 +7822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>546</v>
       </c>
@@ -7617,7 +7833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>548</v>
       </c>
@@ -7628,7 +7844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>549</v>
       </c>
@@ -7639,7 +7855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>551</v>
       </c>
@@ -7650,7 +7866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>553</v>
       </c>
@@ -7661,7 +7877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>553</v>
       </c>
@@ -7672,7 +7888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>555</v>
       </c>
@@ -7683,7 +7899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>557</v>
       </c>
@@ -7694,7 +7910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>559</v>
       </c>
@@ -7705,7 +7921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>561</v>
       </c>
@@ -7716,7 +7932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>563</v>
       </c>
@@ -7727,7 +7943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>563</v>
       </c>
@@ -7738,7 +7954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>563</v>
       </c>
@@ -7749,7 +7965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>563</v>
       </c>
@@ -7760,7 +7976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>567</v>
       </c>
@@ -7771,7 +7987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>569</v>
       </c>
@@ -7782,7 +7998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>571</v>
       </c>
@@ -7793,7 +8009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>573</v>
       </c>
@@ -7804,7 +8020,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>574</v>
       </c>
@@ -7815,7 +8031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>574</v>
       </c>
@@ -7826,7 +8042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>574</v>
       </c>
@@ -7837,7 +8053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>574</v>
       </c>
@@ -7848,7 +8064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>578</v>
       </c>
@@ -7859,7 +8075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>579</v>
       </c>
@@ -7870,7 +8086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>581</v>
       </c>
@@ -7881,7 +8097,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>582</v>
       </c>
@@ -7892,7 +8108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>585</v>
       </c>
@@ -7903,7 +8119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>587</v>
       </c>
@@ -7914,7 +8130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>588</v>
       </c>
@@ -7925,7 +8141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>588</v>
       </c>
@@ -7936,7 +8152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>588</v>
       </c>
@@ -7947,7 +8163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>588</v>
       </c>
@@ -7958,7 +8174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>588</v>
       </c>
@@ -7969,7 +8185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>588</v>
       </c>
@@ -7980,7 +8196,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>588</v>
       </c>
@@ -7991,7 +8207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>596</v>
       </c>
@@ -8002,7 +8218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>598</v>
       </c>
@@ -8013,7 +8229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>598</v>
       </c>
@@ -8024,7 +8240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>601</v>
       </c>
@@ -8035,7 +8251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>601</v>
       </c>
@@ -8046,7 +8262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>601</v>
       </c>
@@ -8057,7 +8273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>601</v>
       </c>
@@ -8068,7 +8284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>601</v>
       </c>
@@ -8079,7 +8295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>601</v>
       </c>
@@ -8090,7 +8306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>601</v>
       </c>
@@ -8101,7 +8317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>601</v>
       </c>
@@ -8112,7 +8328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>601</v>
       </c>
@@ -8123,7 +8339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>601</v>
       </c>
@@ -8134,7 +8350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>601</v>
       </c>
@@ -8145,7 +8361,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>601</v>
       </c>
@@ -8156,7 +8372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>601</v>
       </c>
@@ -8167,7 +8383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>601</v>
       </c>
@@ -8178,7 +8394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>601</v>
       </c>
@@ -8189,7 +8405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>601</v>
       </c>
@@ -8200,7 +8416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>601</v>
       </c>
@@ -8211,7 +8427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>601</v>
       </c>
@@ -8222,7 +8438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>601</v>
       </c>
@@ -8233,7 +8449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>601</v>
       </c>
@@ -8244,7 +8460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>601</v>
       </c>
@@ -8255,7 +8471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>601</v>
       </c>
@@ -8266,7 +8482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>601</v>
       </c>
@@ -8277,7 +8493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>601</v>
       </c>
@@ -8288,7 +8504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>601</v>
       </c>
@@ -8299,7 +8515,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>625</v>
       </c>
@@ -8310,7 +8526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>627</v>
       </c>
@@ -8321,7 +8537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>629</v>
       </c>
@@ -8332,7 +8548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>630</v>
       </c>
@@ -8343,7 +8559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>632</v>
       </c>
@@ -8354,7 +8570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>633</v>
       </c>
@@ -8365,7 +8581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>633</v>
       </c>
@@ -8376,7 +8592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>634</v>
       </c>
@@ -8387,7 +8603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>634</v>
       </c>
@@ -8398,7 +8614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>634</v>
       </c>
@@ -8409,7 +8625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>634</v>
       </c>
@@ -8420,7 +8636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>634</v>
       </c>
@@ -8431,7 +8647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>634</v>
       </c>
@@ -8442,7 +8658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>638</v>
       </c>

--- a/Data/silvicsDataScraping.xlsx
+++ b/Data/silvicsDataScraping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\PhD_thesis\mast_trait\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FA00FD-ED9E-48F1-97B9-4A15F6736CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B326245F-5DD3-4989-8848-4B26AF4C170C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vol1" sheetId="1" r:id="rId1"/>
@@ -6497,7 +6497,7 @@
   <dimension ref="A1:AL130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/Data/silvicsDataScraping.xlsx
+++ b/Data/silvicsDataScraping.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PhD\Project\PhD_thesis\mast_trait\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B326245F-5DD3-4989-8848-4B26AF4C170C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE06EB1-4874-4032-81A2-CEBD71777457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vol1" sheetId="1" r:id="rId1"/>
     <sheet name="Vol2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vol1'!$A$1:$AF$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Vol2'!$AA$1:$AA$128</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="995">
   <si>
     <t>typeMonoOrDio</t>
   </si>
@@ -1773,30 +1778,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>totalPrecipitation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>growingSeasonPrecipitation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>annualMinimumTemp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300-510</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-12--34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>610-1420</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mixed hardwood forests, oak-hickory, maple-beech-birch</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2003,10 +1984,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Cercis</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>canadensis</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2019,10 +1996,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Comus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>florida</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2227,10 +2200,6 @@
     <t>ogeche</t>
   </si>
   <si>
-    <t>sylvatica var sylvatica</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>sylvatica var biflora</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2279,9 +2248,6 @@
     <t>balsamifera</t>
   </si>
   <si>
-    <t>deltoides var deltoides</t>
-  </si>
-  <si>
     <t>deltoides var occidentalis</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2470,18 +2436,6 @@
     <t>californica</t>
   </si>
   <si>
-    <t>annualMaximumTemp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>380-1020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>510-2030</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>well-drained loams, spodosols, alfisols, mollisols, abundant organic matter, strongly acid</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2510,14 +2464,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>810-1520</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200-810</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>polygamo-monoecious</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2579,6 +2525,1371 @@
   </si>
   <si>
     <t>Polygamo-monoecious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cornus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200-900</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct to Dec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nov to Apr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-Aug to late Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dioecious</t>
+  </si>
+  <si>
+    <t>Polygamo-dioecious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/or maybe</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>March to May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, animal activity and water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>topography</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27, 30, 32, 34, 55,59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April to June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>65/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tolerant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>loamy moist soil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-April to July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>65-85</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>acid soil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>February to March</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800000/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>small size, not spread more than 30 to 60 in</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-750</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>221, 11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150-1220</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, wind, animals and water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>March to May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May to June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind, animals, water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90-100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Oct to early Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity and wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feb to May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April to June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug to Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep to Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-March or mid-June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mammal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>156000/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>March to April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind and water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird and mammal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late June to early July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>winter and spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind, gravity and animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>July to Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70000/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird, water, animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>intolerant</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insect and wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>south florida: april to aug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North Carolina: mid-July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-6 weeks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animals and water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May or June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep to April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52900/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity and animal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug to Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April or May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insects, mammal, bird</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>squirrels, mice and gravity, bird</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South: March</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North: May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep to Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>March or April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird, deer, squirrel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, squirrels, mice</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insects, squirrels, rodents, deer, birds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early Sep to early Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep to early Dec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Squirrels, mice and bird</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep to Feb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water, rodent and bird</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>880/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April to late May or early June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity and rodens</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April to May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>deer, hogs, squirrels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North: mid-June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>south: early April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug to Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, squirrels and water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>308/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water and animals (less preferred by wildlife</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feb to March</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>squirrels, gravity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April or late spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>small animals and rodents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-March to mid-May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>March to June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 week</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Aug to Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity and squirrel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1190/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late March to mid-May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-Sep to Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird, mammals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>squirrel, mice, bird and deer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animals and birds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, rodents and water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insects and animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, wind and rodents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South: late March</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North: early June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-Aug to mid-Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, birds, mammals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Late March to early July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>July to Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, birds and mammals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan to March and Sep to Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April and July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 to 150 years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9 months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tropical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dioecious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Washington: early march to late May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>British Columbia, Montana: mid-June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late May to mid-July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 weeks to 1 month</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New England: mid-March to April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>central Rockies: May to June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May or June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>March to May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April to July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind and water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 week to 2 weeks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>southern Ontario and southeastern Michigan: late April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>northern Michigan and northern Minnesota: early to mid-May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 weeks after flowering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feb to April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 months after flowering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April to May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 to 5 weeks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North: May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>441000/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feb to May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind, water and birds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April to Aug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec to April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds and rodents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insect and wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds, deer, black bear</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4630/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>winter to spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late June to Aug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>winter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Southeast: late March to mid-April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North: mid-May to mid-June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall to early winter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66000/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind, birds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April to June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep to Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, animals, birds</t>
+  </si>
+  <si>
+    <t>late March to late May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, water, animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2710/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4cm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep to Dec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>990/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14 months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8600/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds and mammals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>anytime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bird and insects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>year-round</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>insects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>released by fire, frost or damage, falls within a radius of 15 timmes the tree height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico: May through late Aug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad: Jan to Feb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1280/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds and animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>several weeks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind, birds, water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16600/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14200/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late fall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May to June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10030/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April to early July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4 days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds, wind, water, gravity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3530/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April through June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep through Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30900/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>livestock, mammals, birds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>June to Aug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Sep to mid-Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-6 weeks</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-5 times the height of the tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 to 7 years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>March to early May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall within 61m of the parent tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South: mid-April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>soon after leaf fall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity and animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April toJune</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South: April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North: June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>61730/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds, animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>warm and cold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>March through Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>June to mid-Aug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Dec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6170/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>several years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oct to Dec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>several months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7050/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Florida: March or April</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North: late April to early May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>July through Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April ot May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep or Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>April and May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall within 140m of parent tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late April to early May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>after heavy frost</t>
+  </si>
+  <si>
+    <t>3500/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall near parent tree</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rodents, birds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hawaii: Jan to Mar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>California: April to June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tropical: year-round</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>California: Jan to March</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-7 months after flowering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>May and Dec</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>short</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South: mid-March</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North: late May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9920/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind and insects</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6 months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>winterchiling enhances flowering</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall and win</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall and winter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind, animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mechanical and cold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds, small mammals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remain through winter to spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-March to May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late spring frosts kill flowers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remain until midwinter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds, water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico, northern South America: May to Aug</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina: Sep to Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monoecious</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds, bats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3 months</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan to March</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dec to March</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-June to mid-July</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late Sep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, squirrels, birds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>220/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, squirrels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>squirrels, water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, birds, squirrels</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>water, animals</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-March to early June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>frost severly impact seed yield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>440/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>South: mid-March to early May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>North: April to May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>birds, wind</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cold and chemical</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico: spring and summer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad: Sep to Oct</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, bats, birds, rats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-April to early June</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall near parent stand</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late spring or early summer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wind, water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-Sep through Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1367000/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>early spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99200/kg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>can travel 400m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>light</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-12 years</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>high elevation: mid-May</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>low elevation: mid-March</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gravity, animals, birds</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mid-Sep to mid-Nov</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late winter to early spring</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>late fall and winter</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2945,8 +4256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF66"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AF1"/>
+    <sheetView topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6486,6 +7797,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AF66" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6494,10 +7806,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{285299B4-E214-460B-9EDA-5409072924F0}">
-  <dimension ref="A1:AL130"/>
+  <dimension ref="A1:AL128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6505,6 +7818,10 @@
     <col min="1" max="1" width="12.08203125" customWidth="1"/>
     <col min="9" max="9" width="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9" style="3"/>
     <col min="33" max="33" width="15.5" customWidth="1"/>
     <col min="36" max="36" width="25.58203125" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="20.08203125" bestFit="1" customWidth="1"/>
@@ -6613,18 +7930,10 @@
       <c r="AH1" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>640</v>
-      </c>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6852,13 +8161,13 @@
         <v>37</v>
       </c>
       <c r="I6" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="J6" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="L6" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M6" t="s">
         <v>120</v>
@@ -6873,45 +8182,37 @@
         <v>419</v>
       </c>
       <c r="S6" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="V6" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Z6" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="AA6" t="s">
         <v>419</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="3">
         <v>4</v>
       </c>
       <c r="AF6" t="s">
         <v>171</v>
       </c>
       <c r="AG6" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="AH6" t="s">
         <v>454</v>
       </c>
-      <c r="AI6" t="s">
-        <v>461</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>459</v>
-      </c>
-      <c r="AK6" s="3" t="s">
-        <v>460</v>
-      </c>
+      <c r="AK6" s="3"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>432</v>
       </c>
       <c r="B7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C7" t="s">
         <v>434</v>
@@ -6920,13 +8221,13 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G7" t="s">
         <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="I7" t="s">
         <v>116</v>
@@ -6941,19 +8242,19 @@
         <v>419</v>
       </c>
       <c r="S7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="V7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="AF7" t="s">
         <v>171</v>
       </c>
       <c r="AG7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="AH7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.3">
@@ -6961,7 +8262,7 @@
         <v>432</v>
       </c>
       <c r="B8" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C8" t="s">
         <v>434</v>
@@ -6976,7 +8277,7 @@
         <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="I8" t="s">
         <v>448</v>
@@ -6985,7 +8286,7 @@
         <v>28</v>
       </c>
       <c r="M8" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="N8" t="s">
         <v>28</v>
@@ -7002,20 +8303,17 @@
       <c r="AA8" t="s">
         <v>419</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="3">
         <v>2</v>
       </c>
       <c r="AF8" t="s">
         <v>171</v>
       </c>
       <c r="AG8" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AH8" t="s">
-        <v>478</v>
-      </c>
-      <c r="AK8">
-        <v>-40</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.3">
@@ -7023,7 +8321,7 @@
         <v>432</v>
       </c>
       <c r="B9" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C9" t="s">
         <v>434</v>
@@ -7038,7 +8336,7 @@
         <v>37</v>
       </c>
       <c r="I9" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="L9" t="s">
         <v>28</v>
@@ -7059,13 +8357,7 @@
         <v>177</v>
       </c>
       <c r="AH9" t="s">
-        <v>649</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>650</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.3">
@@ -7073,7 +8365,7 @@
         <v>432</v>
       </c>
       <c r="B10" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="C10" t="s">
         <v>434</v>
@@ -7094,7 +8386,7 @@
         <v>28</v>
       </c>
       <c r="M10" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="N10" t="s">
         <v>28</v>
@@ -7106,16 +8398,16 @@
         <v>419</v>
       </c>
       <c r="S10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="T10" s="4">
         <v>0.95</v>
       </c>
       <c r="V10" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="Z10" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="AA10" t="s">
         <v>419</v>
@@ -7124,73 +8416,118 @@
         <v>171</v>
       </c>
       <c r="AG10" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="AH10" t="s">
-        <v>643</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>642</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>641</v>
-      </c>
-      <c r="AK10">
-        <v>-40</v>
-      </c>
-      <c r="AL10">
-        <v>38</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B11" t="s">
         <v>215</v>
       </c>
       <c r="C11" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
+      <c r="I11" t="s">
+        <v>668</v>
+      </c>
+      <c r="M11" t="s">
+        <v>333</v>
+      </c>
+      <c r="N11" t="s">
+        <v>669</v>
+      </c>
+      <c r="O11" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="S11" t="s">
+        <v>671</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>662</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B12" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="C12" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
       <c r="G12" t="s">
         <v>37</v>
       </c>
+      <c r="I12" t="s">
+        <v>674</v>
+      </c>
+      <c r="M12" t="s">
+        <v>675</v>
+      </c>
+      <c r="N12" t="s">
+        <v>669</v>
+      </c>
+      <c r="S12" t="s">
+        <v>671</v>
+      </c>
+      <c r="V12" t="s">
+        <v>676</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>662</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>672</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>677</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>673</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="C13" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -7201,16 +8538,46 @@
       <c r="G13" t="s">
         <v>37</v>
       </c>
+      <c r="I13" t="s">
+        <v>679</v>
+      </c>
+      <c r="L13" t="s">
+        <v>680</v>
+      </c>
+      <c r="M13" t="s">
+        <v>333</v>
+      </c>
+      <c r="N13" t="s">
+        <v>681</v>
+      </c>
+      <c r="S13" t="s">
+        <v>671</v>
+      </c>
+      <c r="T13" t="s">
+        <v>683</v>
+      </c>
+      <c r="V13" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>684</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B14" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="C14" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -7221,16 +8588,49 @@
       <c r="G14" t="s">
         <v>37</v>
       </c>
+      <c r="I14" t="s">
+        <v>687</v>
+      </c>
+      <c r="M14" t="s">
+        <v>333</v>
+      </c>
+      <c r="N14" t="s">
+        <v>681</v>
+      </c>
+      <c r="R14" t="s">
+        <v>684</v>
+      </c>
+      <c r="S14" t="s">
+        <v>671</v>
+      </c>
+      <c r="T14" t="s">
+        <v>688</v>
+      </c>
+      <c r="V14" t="s">
+        <v>689</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>686</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B15" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="C15" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -7241,33 +8641,66 @@
       <c r="G15" t="s">
         <v>37</v>
       </c>
+      <c r="H15" t="s">
+        <v>691</v>
+      </c>
+      <c r="I15" t="s">
+        <v>993</v>
+      </c>
+      <c r="M15" t="s">
+        <v>994</v>
+      </c>
+      <c r="N15" t="s">
+        <v>814</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>663</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B16" t="s">
         <v>234</v>
       </c>
       <c r="C16" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
+      <c r="I16" t="s">
+        <v>990</v>
+      </c>
+      <c r="J16" t="s">
+        <v>989</v>
+      </c>
+      <c r="M16" t="s">
+        <v>992</v>
+      </c>
+      <c r="N16" t="s">
+        <v>991</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
       <c r="AA16" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B17" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="C17" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -7278,16 +8711,49 @@
       <c r="G17" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>835</v>
+      </c>
+      <c r="M17" t="s">
+        <v>873</v>
+      </c>
+      <c r="N17" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q17">
+        <v>40</v>
+      </c>
+      <c r="R17" t="s">
+        <v>803</v>
+      </c>
+      <c r="S17" t="s">
+        <v>987</v>
+      </c>
+      <c r="V17" t="s">
+        <v>985</v>
+      </c>
+      <c r="W17" t="s">
+        <v>988</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>986</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B18" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="C18" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -7298,16 +8764,40 @@
       <c r="G18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>826</v>
+      </c>
+      <c r="M18" t="s">
+        <v>981</v>
+      </c>
+      <c r="N18" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q18">
+        <v>40</v>
+      </c>
+      <c r="R18" t="s">
+        <v>816</v>
+      </c>
+      <c r="V18" t="s">
+        <v>982</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB18" s="3" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B19" t="s">
         <v>220</v>
       </c>
       <c r="C19" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -7318,16 +8808,28 @@
       <c r="G19" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>984</v>
+      </c>
+      <c r="M19" t="s">
+        <v>979</v>
+      </c>
+      <c r="N19" t="s">
+        <v>980</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B20" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C20" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -7338,36 +8840,72 @@
       <c r="G20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>977</v>
+      </c>
+      <c r="M20" t="s">
+        <v>848</v>
+      </c>
+      <c r="N20" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+      <c r="W20" t="s">
+        <v>957</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B21" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="C21" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
       <c r="G21" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>974</v>
+      </c>
+      <c r="J21" t="s">
+        <v>975</v>
+      </c>
+      <c r="M21" t="s">
+        <v>815</v>
+      </c>
+      <c r="N21" t="s">
+        <v>976</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B22" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="C22" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -7376,18 +8914,42 @@
         <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+      <c r="I22" t="s">
+        <v>970</v>
+      </c>
+      <c r="J22" t="s">
+        <v>971</v>
+      </c>
+      <c r="L22" t="s">
+        <v>814</v>
+      </c>
+      <c r="N22" t="s">
+        <v>972</v>
+      </c>
+      <c r="R22" t="s">
+        <v>803</v>
+      </c>
+      <c r="S22" t="s">
+        <v>973</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B23" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C23" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -7396,18 +8958,36 @@
         <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+      <c r="I23" t="s">
+        <v>826</v>
+      </c>
+      <c r="M23" t="s">
+        <v>909</v>
+      </c>
+      <c r="N23" t="s">
+        <v>965</v>
+      </c>
+      <c r="Q23">
+        <v>20</v>
+      </c>
+      <c r="V23" t="s">
+        <v>968</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B24" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="C24" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -7416,18 +8996,45 @@
         <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+      <c r="I24" t="s">
+        <v>826</v>
+      </c>
+      <c r="L24" t="s">
+        <v>814</v>
+      </c>
+      <c r="M24" t="s">
+        <v>848</v>
+      </c>
+      <c r="N24" t="s">
+        <v>969</v>
+      </c>
+      <c r="Q24">
+        <v>30</v>
+      </c>
+      <c r="R24" t="s">
+        <v>803</v>
+      </c>
+      <c r="S24" t="s">
+        <v>857</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B25" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="C25" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -7436,18 +9043,45 @@
         <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+      <c r="I25" t="s">
+        <v>966</v>
+      </c>
+      <c r="L25" t="s">
+        <v>814</v>
+      </c>
+      <c r="M25" t="s">
+        <v>854</v>
+      </c>
+      <c r="N25" t="s">
+        <v>962</v>
+      </c>
+      <c r="Q25">
+        <v>30</v>
+      </c>
+      <c r="V25" t="s">
+        <v>968</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B26" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C26" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -7456,18 +9090,39 @@
         <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+      <c r="I26" t="s">
+        <v>826</v>
+      </c>
+      <c r="L26" t="s">
+        <v>814</v>
+      </c>
+      <c r="M26" t="s">
+        <v>854</v>
+      </c>
+      <c r="N26" t="s">
+        <v>965</v>
+      </c>
+      <c r="Q26">
+        <v>20</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B27" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="C27" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -7478,16 +9133,43 @@
       <c r="G27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>847</v>
+      </c>
+      <c r="L27" t="s">
+        <v>814</v>
+      </c>
+      <c r="M27" t="s">
+        <v>848</v>
+      </c>
+      <c r="N27" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q27">
+        <v>40</v>
+      </c>
+      <c r="R27" t="s">
+        <v>803</v>
+      </c>
+      <c r="S27" t="s">
+        <v>857</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>493</v>
+      </c>
+      <c r="B28" t="s">
         <v>499</v>
       </c>
-      <c r="B28" t="s">
-        <v>505</v>
-      </c>
       <c r="C28" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -7496,18 +9178,39 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+      <c r="I28" t="s">
+        <v>826</v>
+      </c>
+      <c r="L28" t="s">
+        <v>814</v>
+      </c>
+      <c r="M28" t="s">
+        <v>854</v>
+      </c>
+      <c r="N28" t="s">
+        <v>963</v>
+      </c>
+      <c r="Q28">
+        <v>30</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B29" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="C29" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -7518,16 +9221,46 @@
       <c r="G29" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>790</v>
+      </c>
+      <c r="J29" t="s">
+        <v>791</v>
+      </c>
+      <c r="L29" t="s">
+        <v>814</v>
+      </c>
+      <c r="M29" t="s">
+        <v>854</v>
+      </c>
+      <c r="N29" t="s">
+        <v>962</v>
+      </c>
+      <c r="O29" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q29">
+        <v>40</v>
+      </c>
+      <c r="V29" t="s">
+        <v>961</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B30" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="C30" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -7538,16 +9271,34 @@
       <c r="G30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>826</v>
+      </c>
+      <c r="L30" t="s">
+        <v>814</v>
+      </c>
+      <c r="N30" t="s">
+        <v>960</v>
+      </c>
+      <c r="Q30">
+        <v>25</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B31" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="C31" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -7555,30 +9306,75 @@
       <c r="F31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>958</v>
+      </c>
+      <c r="L31" t="s">
+        <v>936</v>
+      </c>
+      <c r="M31" t="s">
+        <v>959</v>
+      </c>
+      <c r="N31" t="s">
+        <v>960</v>
+      </c>
+      <c r="O31" t="s">
+        <v>864</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="C32" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+      <c r="I32" t="s">
+        <v>847</v>
+      </c>
+      <c r="L32" t="s">
+        <v>814</v>
+      </c>
+      <c r="M32" t="s">
+        <v>956</v>
+      </c>
+      <c r="N32" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32" t="s">
+        <v>816</v>
+      </c>
+      <c r="W32" t="s">
+        <v>957</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B33" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C33" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -7586,300 +9382,829 @@
       <c r="F33" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>863</v>
+      </c>
+      <c r="M33" t="s">
+        <v>955</v>
+      </c>
+      <c r="N33" t="s">
+        <v>953</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="W33" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>507</v>
+      </c>
+      <c r="B34" t="s">
+        <v>508</v>
+      </c>
+      <c r="C34" t="s">
+        <v>650</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>952</v>
+      </c>
+      <c r="I34" t="s">
+        <v>950</v>
+      </c>
+      <c r="J34" t="s">
+        <v>951</v>
+      </c>
+      <c r="N34" t="s">
+        <v>814</v>
+      </c>
+      <c r="R34" t="s">
+        <v>816</v>
+      </c>
+      <c r="W34" t="s">
+        <v>932</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>509</v>
+      </c>
+      <c r="B35" t="s">
+        <v>510</v>
+      </c>
+      <c r="C35" t="s">
+        <v>651</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>652</v>
+      </c>
+      <c r="I35" t="s">
+        <v>946</v>
+      </c>
+      <c r="M35" t="s">
+        <v>948</v>
+      </c>
+      <c r="N35" t="s">
+        <v>949</v>
+      </c>
+      <c r="Q35">
+        <v>15</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>439</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>509</v>
+      </c>
+      <c r="B36" t="s">
+        <v>511</v>
+      </c>
+      <c r="C36" t="s">
+        <v>651</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>652</v>
+      </c>
+      <c r="I36" t="s">
+        <v>762</v>
+      </c>
+      <c r="J36" t="s">
+        <v>934</v>
+      </c>
+      <c r="M36" t="s">
+        <v>945</v>
+      </c>
+      <c r="N36" t="s">
+        <v>944</v>
+      </c>
+      <c r="W36" t="s">
+        <v>943</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>939</v>
+      </c>
+      <c r="B37" t="s">
+        <v>512</v>
+      </c>
+      <c r="C37" t="s">
+        <v>412</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" t="s">
+        <v>817</v>
+      </c>
+      <c r="L37" t="s">
+        <v>864</v>
+      </c>
+      <c r="M37" t="s">
+        <v>940</v>
+      </c>
+      <c r="N37" t="s">
+        <v>941</v>
+      </c>
+      <c r="O37" t="s">
+        <v>864</v>
+      </c>
+      <c r="R37" t="s">
+        <v>803</v>
+      </c>
+      <c r="S37" t="s">
+        <v>942</v>
+      </c>
+      <c r="W37" t="s">
+        <v>943</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>938</v>
+      </c>
+      <c r="AK37" s="3"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>513</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>514</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" t="s">
+        <v>413</v>
+      </c>
+      <c r="I38" t="s">
+        <v>863</v>
+      </c>
+      <c r="L38" t="s">
+        <v>936</v>
+      </c>
+      <c r="M38" t="s">
+        <v>918</v>
+      </c>
+      <c r="Q38">
+        <v>5</v>
+      </c>
+      <c r="W38" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>653</v>
+      </c>
+      <c r="B39" t="s">
+        <v>515</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" t="s">
+        <v>933</v>
+      </c>
+      <c r="J39" t="s">
+        <v>934</v>
+      </c>
+      <c r="N39" t="s">
+        <v>901</v>
+      </c>
+      <c r="Q39">
+        <v>6</v>
+      </c>
+      <c r="V39" t="s">
+        <v>935</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>516</v>
+      </c>
+      <c r="B40" t="s">
+        <v>517</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" t="s">
+        <v>413</v>
+      </c>
+      <c r="H40" t="s">
+        <v>654</v>
+      </c>
+      <c r="I40" t="s">
+        <v>931</v>
+      </c>
+      <c r="M40" t="s">
+        <v>909</v>
+      </c>
+      <c r="R40" t="s">
+        <v>816</v>
+      </c>
+      <c r="W40" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>518</v>
+      </c>
+      <c r="B41" t="s">
+        <v>519</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>413</v>
+      </c>
+      <c r="I41" t="s">
+        <v>655</v>
+      </c>
+      <c r="L41" t="s">
+        <v>656</v>
+      </c>
+      <c r="N41" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q41">
+        <v>10</v>
+      </c>
+      <c r="AA41" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>520</v>
+      </c>
+      <c r="B42" t="s">
+        <v>521</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" t="s">
+        <v>657</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA42" t="s">
         <v>665</v>
       </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>515</v>
-      </c>
-      <c r="B35" t="s">
-        <v>516</v>
-      </c>
-      <c r="C35" t="s">
-        <v>666</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="F35" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>515</v>
-      </c>
-      <c r="B36" t="s">
-        <v>517</v>
-      </c>
-      <c r="C36" t="s">
-        <v>666</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="F36" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>518</v>
-      </c>
-      <c r="B37" t="s">
-        <v>519</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>520</v>
-      </c>
-      <c r="B38" t="s">
-        <v>521</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="AB42" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>522</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B43" t="s">
         <v>523</v>
       </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="I43" t="s">
+        <v>658</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB43" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>522</v>
+      </c>
+      <c r="B44" t="s">
         <v>524</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>658</v>
+      </c>
+      <c r="L44" t="s">
+        <v>864</v>
+      </c>
+      <c r="M44" t="s">
+        <v>930</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>522</v>
+      </c>
+      <c r="B45" t="s">
         <v>525</v>
       </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>928</v>
+      </c>
+      <c r="J45" t="s">
+        <v>929</v>
+      </c>
+      <c r="L45" t="s">
+        <v>656</v>
+      </c>
+      <c r="N45" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>522</v>
+      </c>
+      <c r="B46" t="s">
         <v>526</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>693</v>
+      </c>
+      <c r="I46" t="s">
+        <v>926</v>
+      </c>
+      <c r="J46" t="s">
+        <v>927</v>
+      </c>
+      <c r="L46" t="s">
+        <v>792</v>
+      </c>
+      <c r="N46" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>527</v>
       </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B47" t="s">
         <v>528</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s">
+        <v>921</v>
+      </c>
+      <c r="M47" t="s">
+        <v>922</v>
+      </c>
+      <c r="N47" t="s">
+        <v>925</v>
+      </c>
+      <c r="Q47">
+        <v>40</v>
+      </c>
+      <c r="V47" t="s">
+        <v>923</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>924</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>529</v>
       </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>530</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="B48" t="s">
         <v>531</v>
       </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>530</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>660</v>
+      </c>
+      <c r="I48" t="s">
+        <v>918</v>
+      </c>
+      <c r="L48" t="s">
+        <v>814</v>
+      </c>
+      <c r="N48" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q48">
+        <v>20</v>
+      </c>
+      <c r="R48" t="s">
+        <v>803</v>
+      </c>
+      <c r="S48" t="s">
+        <v>920</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>919</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>529</v>
+      </c>
+      <c r="B49" t="s">
         <v>532</v>
       </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>530</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>660</v>
+      </c>
+      <c r="I49" t="s">
+        <v>916</v>
+      </c>
+      <c r="M49" t="s">
+        <v>917</v>
+      </c>
+      <c r="N49" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q49">
+        <v>30</v>
+      </c>
+      <c r="R49" t="s">
+        <v>803</v>
+      </c>
+      <c r="S49" t="s">
+        <v>857</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>529</v>
+      </c>
+      <c r="B50" t="s">
         <v>533</v>
       </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>530</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>642</v>
+      </c>
+      <c r="I50" t="s">
+        <v>815</v>
+      </c>
+      <c r="M50" t="s">
+        <v>915</v>
+      </c>
+      <c r="R50" t="s">
+        <v>803</v>
+      </c>
+      <c r="S50" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>529</v>
+      </c>
+      <c r="B51" t="s">
         <v>534</v>
       </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>660</v>
+      </c>
+      <c r="I51" t="s">
+        <v>912</v>
+      </c>
+      <c r="J51" t="s">
+        <v>913</v>
+      </c>
+      <c r="M51" t="s">
+        <v>914</v>
+      </c>
+      <c r="N51" t="s">
+        <v>819</v>
+      </c>
+      <c r="R51" t="s">
+        <v>803</v>
+      </c>
+      <c r="S51" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>529</v>
+      </c>
+      <c r="B52" t="s">
         <v>535</v>
       </c>
-      <c r="B47" t="s">
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>660</v>
+      </c>
+      <c r="I52" t="s">
+        <v>826</v>
+      </c>
+      <c r="M52" t="s">
+        <v>909</v>
+      </c>
+      <c r="N52" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q52">
+        <v>10</v>
+      </c>
+      <c r="V52" t="s">
+        <v>911</v>
+      </c>
+      <c r="W52" t="s">
+        <v>910</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>536</v>
       </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B53" t="s">
         <v>537</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>661</v>
+      </c>
+      <c r="I53" t="s">
+        <v>906</v>
+      </c>
+      <c r="M53" t="s">
+        <v>875</v>
+      </c>
+      <c r="N53" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q53">
+        <v>10</v>
+      </c>
+      <c r="V53" t="s">
+        <v>907</v>
+      </c>
+      <c r="W53" t="s">
+        <v>908</v>
+      </c>
+      <c r="AA53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>538</v>
+      </c>
+      <c r="B54" t="s">
         <v>539</v>
       </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>537</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="I54" t="s">
+        <v>904</v>
+      </c>
+      <c r="L54" t="s">
+        <v>864</v>
+      </c>
+      <c r="M54" t="s">
+        <v>905</v>
+      </c>
+      <c r="N54" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>540</v>
       </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>537</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="B55" t="s">
+        <v>525</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="I55" t="s">
+        <v>903</v>
+      </c>
+      <c r="M55" t="s">
+        <v>875</v>
+      </c>
+      <c r="N55" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q55">
+        <v>10</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>541</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>537</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="B56" t="s">
         <v>542</v>
       </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>537</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>660</v>
+      </c>
+      <c r="I56" t="s">
+        <v>817</v>
+      </c>
+      <c r="M56" t="s">
+        <v>841</v>
+      </c>
+      <c r="R56" t="s">
+        <v>803</v>
+      </c>
+      <c r="S56" t="s">
+        <v>902</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>543</v>
       </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="B57" t="s">
         <v>544</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>660</v>
+      </c>
+      <c r="I57" t="s">
+        <v>898</v>
+      </c>
+      <c r="J57" t="s">
+        <v>899</v>
+      </c>
+      <c r="L57" t="s">
+        <v>864</v>
+      </c>
+      <c r="M57" t="s">
+        <v>841</v>
+      </c>
+      <c r="N57" t="s">
+        <v>901</v>
+      </c>
+      <c r="R57" t="s">
+        <v>803</v>
+      </c>
+      <c r="S57" t="s">
+        <v>857</v>
+      </c>
+      <c r="V57" t="s">
+        <v>900</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>545</v>
       </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="B58" t="s">
         <v>546</v>
       </c>
-      <c r="B54" t="s">
-        <v>547</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>548</v>
-      </c>
-      <c r="B55" t="s">
-        <v>533</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>549</v>
-      </c>
-      <c r="B56" t="s">
-        <v>550</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>551</v>
-      </c>
-      <c r="B57" t="s">
-        <v>552</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>553</v>
-      </c>
-      <c r="B58" t="s">
-        <v>554</v>
-      </c>
       <c r="D58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I58" t="s">
+        <v>897</v>
+      </c>
+      <c r="M58" t="s">
+        <v>895</v>
+      </c>
+      <c r="N58" t="s">
+        <v>896</v>
+      </c>
+      <c r="Q58">
+        <v>20</v>
+      </c>
+      <c r="R58" t="s">
+        <v>803</v>
+      </c>
+      <c r="S58" t="s">
+        <v>857</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B59" t="s">
         <v>220</v>
@@ -7887,681 +10212,1989 @@
       <c r="D59">
         <v>2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>36</v>
+      </c>
+      <c r="I59" t="s">
+        <v>894</v>
+      </c>
+      <c r="J59" t="s">
+        <v>791</v>
+      </c>
+      <c r="M59" t="s">
+        <v>895</v>
+      </c>
+      <c r="N59" t="s">
+        <v>896</v>
+      </c>
+      <c r="Q59">
+        <v>4</v>
+      </c>
+      <c r="R59" t="s">
+        <v>803</v>
+      </c>
+      <c r="S59" t="s">
+        <v>857</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>547</v>
+      </c>
+      <c r="B60" t="s">
+        <v>548</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" t="s">
+        <v>892</v>
+      </c>
+      <c r="M60" t="s">
+        <v>848</v>
+      </c>
+      <c r="N60" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q60">
+        <v>20</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>893</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>549</v>
+      </c>
+      <c r="B61" t="s">
+        <v>550</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="I61" t="s">
+        <v>847</v>
+      </c>
+      <c r="K61" t="s">
+        <v>888</v>
+      </c>
+      <c r="L61" t="s">
+        <v>864</v>
+      </c>
+      <c r="M61" t="s">
+        <v>889</v>
+      </c>
+      <c r="W61" t="s">
+        <v>891</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>890</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>551</v>
+      </c>
+      <c r="B62" t="s">
+        <v>552</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="I62" t="s">
+        <v>886</v>
+      </c>
+      <c r="M62" t="s">
+        <v>887</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>553</v>
+      </c>
+      <c r="B63" t="s">
+        <v>554</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="F63" t="s">
+        <v>660</v>
+      </c>
+      <c r="I63" t="s">
+        <v>882</v>
+      </c>
+      <c r="M63" t="s">
+        <v>883</v>
+      </c>
+      <c r="N63" t="s">
+        <v>885</v>
+      </c>
+      <c r="Q63">
+        <v>10</v>
+      </c>
+      <c r="R63" t="s">
+        <v>803</v>
+      </c>
+      <c r="S63" t="s">
+        <v>804</v>
+      </c>
+      <c r="V63" t="s">
+        <v>884</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>555</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B64" t="s">
         <v>556</v>
       </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" t="s">
+        <v>878</v>
+      </c>
+      <c r="K64" t="s">
+        <v>879</v>
+      </c>
+      <c r="L64" t="s">
+        <v>864</v>
+      </c>
+      <c r="N64" t="s">
+        <v>880</v>
+      </c>
+      <c r="Q64">
+        <v>30</v>
+      </c>
+      <c r="V64" t="s">
+        <v>881</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB64" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>555</v>
+      </c>
+      <c r="B65" t="s">
         <v>557</v>
       </c>
-      <c r="B61" t="s">
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" t="s">
+        <v>876</v>
+      </c>
+      <c r="V65" t="s">
+        <v>877</v>
+      </c>
+      <c r="AA65" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB65" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>555</v>
+      </c>
+      <c r="B66" t="s">
         <v>558</v>
       </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" t="s">
+        <v>847</v>
+      </c>
+      <c r="M66" t="s">
+        <v>875</v>
+      </c>
+      <c r="N66" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q66">
+        <v>10</v>
+      </c>
+      <c r="V66" t="s">
+        <v>874</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>555</v>
+      </c>
+      <c r="B67" t="s">
+        <v>521</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="I67" t="s">
+        <v>818</v>
+      </c>
+      <c r="K67" t="s">
+        <v>870</v>
+      </c>
+      <c r="L67" t="s">
+        <v>864</v>
+      </c>
+      <c r="M67" t="s">
+        <v>873</v>
+      </c>
+      <c r="N67" t="s">
+        <v>871</v>
+      </c>
+      <c r="V67" t="s">
+        <v>872</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>559</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B68" t="s">
         <v>560</v>
       </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s">
+        <v>806</v>
+      </c>
+      <c r="I68" t="s">
+        <v>866</v>
+      </c>
+      <c r="J68" t="s">
+        <v>867</v>
+      </c>
+      <c r="N68" t="s">
+        <v>869</v>
+      </c>
+      <c r="V68" t="s">
+        <v>868</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB68" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>561</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B69" t="s">
         <v>562</v>
       </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>36</v>
+      </c>
+      <c r="I69" t="s">
+        <v>863</v>
+      </c>
+      <c r="L69" t="s">
+        <v>864</v>
+      </c>
+      <c r="M69" t="s">
+        <v>863</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>865</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>563</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B70" t="s">
         <v>564</v>
       </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>563</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>806</v>
+      </c>
+      <c r="I70" t="s">
+        <v>861</v>
+      </c>
+      <c r="L70" t="s">
+        <v>862</v>
+      </c>
+      <c r="W70" t="s">
+        <v>802</v>
+      </c>
+      <c r="AA70" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
         <v>565</v>
       </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>563</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="B71" t="s">
+        <v>483</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="F71" t="s">
+        <v>660</v>
+      </c>
+      <c r="I71" t="s">
+        <v>826</v>
+      </c>
+      <c r="N71" t="s">
+        <v>860</v>
+      </c>
+      <c r="Q71">
+        <v>4</v>
+      </c>
+      <c r="V71" t="s">
+        <v>859</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB71" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>566</v>
       </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>563</v>
-      </c>
-      <c r="B67" t="s">
-        <v>529</v>
-      </c>
-      <c r="D67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="B72" t="s">
+        <v>494</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s">
+        <v>661</v>
+      </c>
+      <c r="I72" t="s">
+        <v>295</v>
+      </c>
+      <c r="L72" t="s">
+        <v>814</v>
+      </c>
+      <c r="M72" t="s">
+        <v>854</v>
+      </c>
+      <c r="N72" t="s">
+        <v>856</v>
+      </c>
+      <c r="Q72">
+        <v>30</v>
+      </c>
+      <c r="S72" t="s">
+        <v>857</v>
+      </c>
+      <c r="V72" t="s">
+        <v>855</v>
+      </c>
+      <c r="W72" t="s">
+        <v>858</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>566</v>
+      </c>
+      <c r="B73" t="s">
         <v>567</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="F73" t="s">
+        <v>661</v>
+      </c>
+      <c r="I73" t="s">
+        <v>850</v>
+      </c>
+      <c r="L73" t="s">
+        <v>792</v>
+      </c>
+      <c r="N73" t="s">
+        <v>851</v>
+      </c>
+      <c r="Q73">
+        <v>3</v>
+      </c>
+      <c r="U73" t="s">
+        <v>853</v>
+      </c>
+      <c r="V73" t="s">
+        <v>852</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>566</v>
+      </c>
+      <c r="B74" t="s">
         <v>568</v>
       </c>
-      <c r="D68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="F74" t="s">
+        <v>661</v>
+      </c>
+      <c r="I74" t="s">
+        <v>847</v>
+      </c>
+      <c r="M74" t="s">
+        <v>848</v>
+      </c>
+      <c r="N74" t="s">
+        <v>849</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>569</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="F75" t="s">
+        <v>36</v>
+      </c>
+      <c r="I75" t="s">
+        <v>842</v>
+      </c>
+      <c r="J75" t="s">
+        <v>843</v>
+      </c>
+      <c r="L75" t="s">
+        <v>814</v>
+      </c>
+      <c r="M75" t="s">
+        <v>844</v>
+      </c>
+      <c r="N75" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q75">
+        <v>25</v>
+      </c>
+      <c r="V75" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>570</v>
       </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="B76" t="s">
         <v>571</v>
       </c>
-      <c r="B70" t="s">
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="F76" t="s">
+        <v>36</v>
+      </c>
+      <c r="I76" t="s">
+        <v>840</v>
+      </c>
+      <c r="L76" t="s">
+        <v>792</v>
+      </c>
+      <c r="M76" t="s">
+        <v>841</v>
+      </c>
+      <c r="N76" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>572</v>
       </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="B77" t="s">
+        <v>575</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s">
+        <v>36</v>
+      </c>
+      <c r="I77" t="s">
+        <v>826</v>
+      </c>
+      <c r="M77" t="s">
+        <v>839</v>
+      </c>
+      <c r="N77" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>573</v>
       </c>
-      <c r="B71" t="s">
-        <v>489</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="B78" t="s">
         <v>574</v>
       </c>
-      <c r="B72" t="s">
-        <v>500</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>574</v>
-      </c>
-      <c r="B73" t="s">
-        <v>575</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>574</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="F78" t="s">
+        <v>36</v>
+      </c>
+      <c r="I78" t="s">
+        <v>835</v>
+      </c>
+      <c r="L78" t="s">
+        <v>836</v>
+      </c>
+      <c r="N78" t="s">
+        <v>837</v>
+      </c>
+      <c r="V78" t="s">
+        <v>838</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>576</v>
       </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>574</v>
-      </c>
-      <c r="B75" t="s">
+      <c r="B79" t="s">
         <v>577</v>
       </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s">
+        <v>36</v>
+      </c>
+      <c r="I79" t="s">
+        <v>832</v>
+      </c>
+      <c r="L79" t="s">
+        <v>792</v>
+      </c>
+      <c r="M79" t="s">
+        <v>833</v>
+      </c>
+      <c r="N79" t="s">
+        <v>834</v>
+      </c>
+      <c r="R79" t="s">
+        <v>816</v>
+      </c>
+      <c r="S79" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>578</v>
       </c>
-      <c r="B76" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="B80" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s">
+        <v>36</v>
+      </c>
+      <c r="I80" t="s">
+        <v>790</v>
+      </c>
+      <c r="J80" t="s">
+        <v>828</v>
+      </c>
+      <c r="M80" t="s">
+        <v>830</v>
+      </c>
+      <c r="N80" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q80">
+        <v>25</v>
+      </c>
+      <c r="V80" t="s">
+        <v>829</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB80" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
         <v>579</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B81" t="s">
         <v>580</v>
       </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s">
+        <v>660</v>
+      </c>
+      <c r="I81" t="s">
+        <v>826</v>
+      </c>
+      <c r="L81" t="s">
+        <v>814</v>
+      </c>
+      <c r="M81" t="s">
+        <v>116</v>
+      </c>
+      <c r="N81" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q81">
+        <v>8</v>
+      </c>
+      <c r="W81" t="s">
+        <v>827</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>579</v>
+      </c>
+      <c r="B82" t="s">
         <v>581</v>
       </c>
-      <c r="B78" t="s">
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s">
+        <v>660</v>
+      </c>
+      <c r="I82" t="s">
+        <v>824</v>
+      </c>
+      <c r="L82" t="s">
+        <v>814</v>
+      </c>
+      <c r="M82" t="s">
+        <v>825</v>
+      </c>
+      <c r="N82" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q82">
+        <v>4</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>579</v>
+      </c>
+      <c r="B83" t="s">
+        <v>582</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s">
+        <v>660</v>
+      </c>
+      <c r="I83" t="s">
+        <v>821</v>
+      </c>
+      <c r="J83" t="s">
+        <v>822</v>
+      </c>
+      <c r="L83" t="s">
+        <v>814</v>
+      </c>
+      <c r="M83" t="s">
+        <v>823</v>
+      </c>
+      <c r="N83" t="s">
+        <v>814</v>
+      </c>
+      <c r="Q83">
+        <v>10</v>
+      </c>
+      <c r="R83" t="s">
+        <v>816</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>579</v>
+      </c>
+      <c r="B84" t="s">
+        <v>583</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s">
+        <v>807</v>
+      </c>
+      <c r="I84" t="s">
+        <v>817</v>
+      </c>
+      <c r="L84" t="s">
+        <v>814</v>
+      </c>
+      <c r="M84" t="s">
+        <v>818</v>
+      </c>
+      <c r="N84" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q84">
+        <v>10</v>
+      </c>
+      <c r="R84" t="s">
+        <v>816</v>
+      </c>
+      <c r="W84" t="s">
+        <v>820</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>579</v>
+      </c>
+      <c r="B85" t="s">
         <v>584</v>
       </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>582</v>
-      </c>
-      <c r="B79" t="s">
-        <v>583</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>807</v>
+      </c>
+      <c r="I85" t="s">
+        <v>812</v>
+      </c>
+      <c r="J85" t="s">
+        <v>813</v>
+      </c>
+      <c r="L85" t="s">
+        <v>814</v>
+      </c>
+      <c r="M85" t="s">
+        <v>815</v>
+      </c>
+      <c r="N85" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85" t="s">
+        <v>816</v>
+      </c>
+      <c r="W85" t="s">
+        <v>811</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB85" s="3" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>579</v>
+      </c>
+      <c r="B86" t="s">
         <v>585</v>
       </c>
-      <c r="B80" t="s">
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>807</v>
+      </c>
+      <c r="I86" t="s">
+        <v>808</v>
+      </c>
+      <c r="J86" t="s">
+        <v>809</v>
+      </c>
+      <c r="M86" t="s">
+        <v>810</v>
+      </c>
+      <c r="N86" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q86">
+        <v>10</v>
+      </c>
+      <c r="W86" t="s">
+        <v>811</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>586</v>
       </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="B87" t="s">
         <v>587</v>
       </c>
-      <c r="B81" t="s">
-        <v>60</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>588</v>
-      </c>
-      <c r="B82" t="s">
-        <v>589</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>588</v>
-      </c>
-      <c r="B83" t="s">
-        <v>590</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>588</v>
-      </c>
-      <c r="B84" t="s">
-        <v>591</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>588</v>
-      </c>
-      <c r="B85" t="s">
-        <v>592</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>588</v>
-      </c>
-      <c r="B86" t="s">
-        <v>593</v>
-      </c>
-      <c r="D86">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>588</v>
-      </c>
-      <c r="B87" t="s">
-        <v>594</v>
-      </c>
       <c r="D87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>806</v>
+      </c>
+      <c r="I87" t="s">
+        <v>798</v>
+      </c>
+      <c r="L87" t="s">
+        <v>792</v>
+      </c>
+      <c r="M87" t="s">
+        <v>799</v>
+      </c>
+      <c r="N87" t="s">
+        <v>800</v>
+      </c>
+      <c r="O87" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q87">
+        <v>3</v>
+      </c>
+      <c r="R87" t="s">
+        <v>803</v>
+      </c>
+      <c r="S87" t="s">
+        <v>804</v>
+      </c>
+      <c r="W87" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>588</v>
       </c>
       <c r="B88" t="s">
+        <v>589</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="I88" t="s">
+        <v>795</v>
+      </c>
+      <c r="L88" t="s">
+        <v>792</v>
+      </c>
+      <c r="M88" t="s">
+        <v>796</v>
+      </c>
+      <c r="N88" t="s">
+        <v>797</v>
+      </c>
+      <c r="P88">
+        <v>2</v>
+      </c>
+      <c r="Q88">
+        <v>30</v>
+      </c>
+      <c r="W88" t="s">
+        <v>801</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB88" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>588</v>
+      </c>
+      <c r="B89" t="s">
+        <v>590</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="I89" t="s">
+        <v>790</v>
+      </c>
+      <c r="J89" t="s">
+        <v>791</v>
+      </c>
+      <c r="L89" t="s">
+        <v>792</v>
+      </c>
+      <c r="M89" t="s">
+        <v>793</v>
+      </c>
+      <c r="N89" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q89">
+        <v>10</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>591</v>
+      </c>
+      <c r="B90" t="s">
+        <v>592</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="I90" t="s">
+        <v>710</v>
+      </c>
+      <c r="M90" t="s">
+        <v>709</v>
+      </c>
+      <c r="N90" t="s">
+        <v>789</v>
+      </c>
+      <c r="O90" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q90">
+        <v>20</v>
+      </c>
+      <c r="R90" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB90" s="3" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>591</v>
+      </c>
+      <c r="B91" t="s">
+        <v>593</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="I91" t="s">
+        <v>699</v>
+      </c>
+      <c r="M91" t="s">
+        <v>709</v>
+      </c>
+      <c r="N91" t="s">
+        <v>787</v>
+      </c>
+      <c r="Q91">
+        <v>20</v>
+      </c>
+      <c r="R91" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>591</v>
+      </c>
+      <c r="B92" t="s">
+        <v>594</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="I92" t="s">
+        <v>699</v>
+      </c>
+      <c r="L92" t="s">
+        <v>698</v>
+      </c>
+      <c r="M92" t="s">
+        <v>785</v>
+      </c>
+      <c r="N92" t="s">
+        <v>786</v>
+      </c>
+      <c r="Q92">
+        <v>15</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB92" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>591</v>
+      </c>
+      <c r="B93" t="s">
         <v>595</v>
       </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="I93" t="s">
+        <v>740</v>
+      </c>
+      <c r="N93" t="s">
+        <v>784</v>
+      </c>
+      <c r="O93" t="s">
+        <v>783</v>
+      </c>
+      <c r="Q93">
+        <v>20</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB93" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>591</v>
+      </c>
+      <c r="B94" t="s">
         <v>596</v>
       </c>
-      <c r="B89" t="s">
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="I94" t="s">
+        <v>779</v>
+      </c>
+      <c r="M94" t="s">
+        <v>780</v>
+      </c>
+      <c r="N94" t="s">
+        <v>782</v>
+      </c>
+      <c r="V94" t="s">
+        <v>781</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>591</v>
+      </c>
+      <c r="B95" t="s">
         <v>597</v>
       </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>759</v>
+      </c>
+      <c r="M95" t="s">
+        <v>709</v>
+      </c>
+      <c r="N95" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q95">
+        <v>25</v>
+      </c>
+      <c r="R95" t="s">
+        <v>696</v>
+      </c>
+      <c r="S95" t="s">
+        <v>705</v>
+      </c>
+      <c r="V95" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>591</v>
+      </c>
+      <c r="B96" t="s">
         <v>598</v>
       </c>
-      <c r="B90" t="s">
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="I96" t="s">
+        <v>759</v>
+      </c>
+      <c r="M96" t="s">
+        <v>709</v>
+      </c>
+      <c r="N96" t="s">
+        <v>777</v>
+      </c>
+      <c r="Q96">
+        <v>25</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>591</v>
+      </c>
+      <c r="B97" t="s">
         <v>599</v>
       </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>598</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="D97">
+        <v>2</v>
+      </c>
+      <c r="I97" t="s">
+        <v>774</v>
+      </c>
+      <c r="K97" t="s">
+        <v>775</v>
+      </c>
+      <c r="M97" t="s">
+        <v>776</v>
+      </c>
+      <c r="N97" t="s">
+        <v>738</v>
+      </c>
+      <c r="R97" t="s">
+        <v>725</v>
+      </c>
+      <c r="AA97" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>591</v>
+      </c>
+      <c r="B98" t="s">
         <v>600</v>
       </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="I98" t="s">
+        <v>772</v>
+      </c>
+      <c r="Q98">
+        <v>30</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB98" s="3" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>591</v>
+      </c>
+      <c r="B99" t="s">
         <v>601</v>
       </c>
-      <c r="B92" t="s">
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="I99" t="s">
+        <v>769</v>
+      </c>
+      <c r="N99" t="s">
+        <v>770</v>
+      </c>
+      <c r="O99" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>591</v>
+      </c>
+      <c r="B100" t="s">
         <v>602</v>
       </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>601</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>767</v>
+      </c>
+      <c r="L100" t="s">
+        <v>698</v>
+      </c>
+      <c r="M100" t="s">
+        <v>709</v>
+      </c>
+      <c r="N100" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q100">
+        <v>15</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>591</v>
+      </c>
+      <c r="B101" t="s">
         <v>603</v>
       </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>601</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="I101" t="s">
+        <v>759</v>
+      </c>
+      <c r="M101" t="s">
+        <v>709</v>
+      </c>
+      <c r="N101" t="s">
+        <v>766</v>
+      </c>
+      <c r="Q101">
+        <v>25</v>
+      </c>
+      <c r="R101" t="s">
+        <v>696</v>
+      </c>
+      <c r="S101" t="s">
+        <v>705</v>
+      </c>
+      <c r="V101" t="s">
+        <v>765</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB101" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>591</v>
+      </c>
+      <c r="B102" t="s">
         <v>604</v>
       </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>601</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="I102" t="s">
+        <v>762</v>
+      </c>
+      <c r="J102" t="s">
+        <v>761</v>
+      </c>
+      <c r="M102" t="s">
+        <v>763</v>
+      </c>
+      <c r="N102" t="s">
+        <v>764</v>
+      </c>
+      <c r="Q102">
+        <v>35</v>
+      </c>
+      <c r="R102" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB102" s="3" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>591</v>
+      </c>
+      <c r="B103" t="s">
         <v>605</v>
       </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>601</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="I103" t="s">
+        <v>759</v>
+      </c>
+      <c r="M103" t="s">
+        <v>709</v>
+      </c>
+      <c r="N103" t="s">
+        <v>760</v>
+      </c>
+      <c r="O103" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q103">
+        <v>20</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB103" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>591</v>
+      </c>
+      <c r="B104" t="s">
         <v>606</v>
       </c>
-      <c r="D96">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>601</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="I104" t="s">
+        <v>757</v>
+      </c>
+      <c r="M104" t="s">
+        <v>709</v>
+      </c>
+      <c r="N104" t="s">
+        <v>758</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB104" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>591</v>
+      </c>
+      <c r="B105" t="s">
+        <v>533</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="M105" t="s">
+        <v>702</v>
+      </c>
+      <c r="N105" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q105">
+        <v>20</v>
+      </c>
+      <c r="R105" t="s">
+        <v>696</v>
+      </c>
+      <c r="S105" t="s">
+        <v>756</v>
+      </c>
+      <c r="V105" t="s">
+        <v>755</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>591</v>
+      </c>
+      <c r="B106" t="s">
         <v>607</v>
       </c>
-      <c r="D97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>601</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="I106" t="s">
+        <v>714</v>
+      </c>
+      <c r="L106" t="s">
+        <v>698</v>
+      </c>
+      <c r="M106" t="s">
+        <v>753</v>
+      </c>
+      <c r="N106" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q106">
+        <v>20</v>
+      </c>
+      <c r="R106" t="s">
+        <v>696</v>
+      </c>
+      <c r="S106" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB106" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>591</v>
+      </c>
+      <c r="B107" t="s">
         <v>608</v>
       </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>601</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="I107" t="s">
+        <v>710</v>
+      </c>
+      <c r="L107" t="s">
+        <v>698</v>
+      </c>
+      <c r="M107" t="s">
+        <v>751</v>
+      </c>
+      <c r="N107" t="s">
+        <v>752</v>
+      </c>
+      <c r="Q107">
+        <v>20</v>
+      </c>
+      <c r="R107" t="s">
+        <v>696</v>
+      </c>
+      <c r="S107" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB107" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>591</v>
+      </c>
+      <c r="B108" t="s">
         <v>609</v>
       </c>
-      <c r="D99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>601</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="I108" t="s">
+        <v>706</v>
+      </c>
+      <c r="M108" t="s">
+        <v>739</v>
+      </c>
+      <c r="N108" t="s">
+        <v>732</v>
+      </c>
+      <c r="Q108">
+        <v>20</v>
+      </c>
+      <c r="R108" t="s">
+        <v>696</v>
+      </c>
+      <c r="S108" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>591</v>
+      </c>
+      <c r="B109" t="s">
         <v>610</v>
       </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>601</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="I109" t="s">
+        <v>710</v>
+      </c>
+      <c r="L109" t="s">
+        <v>698</v>
+      </c>
+      <c r="M109" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q109">
+        <v>20</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>591</v>
+      </c>
+      <c r="B110" t="s">
         <v>611</v>
       </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>601</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="I110" t="s">
+        <v>740</v>
+      </c>
+      <c r="M110" t="s">
+        <v>739</v>
+      </c>
+      <c r="N110" t="s">
+        <v>748</v>
+      </c>
+      <c r="O110" t="s">
+        <v>749</v>
+      </c>
+      <c r="Q110">
+        <v>25</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB110" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>591</v>
+      </c>
+      <c r="B111" t="s">
         <v>612</v>
       </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>601</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="I111" t="s">
+        <v>746</v>
+      </c>
+      <c r="M111" t="s">
+        <v>709</v>
+      </c>
+      <c r="N111" t="s">
+        <v>747</v>
+      </c>
+      <c r="O111" t="s">
+        <v>747</v>
+      </c>
+      <c r="Q111">
+        <v>25</v>
+      </c>
+      <c r="AA111" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB111" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>591</v>
+      </c>
+      <c r="B112" t="s">
         <v>613</v>
       </c>
-      <c r="D103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>601</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="I112" t="s">
+        <v>743</v>
+      </c>
+      <c r="J112" t="s">
+        <v>744</v>
+      </c>
+      <c r="M112" t="s">
+        <v>745</v>
+      </c>
+      <c r="Q112">
+        <v>25</v>
+      </c>
+      <c r="AA112" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB112" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>591</v>
+      </c>
+      <c r="B113" t="s">
         <v>614</v>
       </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>601</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="I113" t="s">
+        <v>740</v>
+      </c>
+      <c r="M113" t="s">
+        <v>739</v>
+      </c>
+      <c r="N113" t="s">
+        <v>742</v>
+      </c>
+      <c r="O113" t="s">
+        <v>741</v>
+      </c>
+      <c r="Q113">
+        <v>20</v>
+      </c>
+      <c r="AA113" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB113" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>591</v>
+      </c>
+      <c r="B114" t="s">
+        <v>521</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="I114" t="s">
+        <v>697</v>
+      </c>
+      <c r="M114" t="s">
+        <v>737</v>
+      </c>
+      <c r="N114" t="s">
+        <v>738</v>
+      </c>
+      <c r="AA114" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>615</v>
       </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>601</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="B115" t="s">
         <v>616</v>
       </c>
-      <c r="D106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>601</v>
-      </c>
-      <c r="B107" t="s">
-        <v>541</v>
-      </c>
-      <c r="D107">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>601</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="I115" t="s">
+        <v>733</v>
+      </c>
+      <c r="L115" t="s">
+        <v>694</v>
+      </c>
+      <c r="M115" t="s">
+        <v>734</v>
+      </c>
+      <c r="Q115">
+        <v>6</v>
+      </c>
+      <c r="R115" t="s">
+        <v>696</v>
+      </c>
+      <c r="S115" t="s">
+        <v>736</v>
+      </c>
+      <c r="V115" t="s">
+        <v>735</v>
+      </c>
+      <c r="W115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
         <v>617</v>
       </c>
-      <c r="D108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>601</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="B116" t="s">
         <v>618</v>
       </c>
-      <c r="D109">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>601</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="D116">
+        <v>2</v>
+      </c>
+      <c r="I116" t="s">
+        <v>729</v>
+      </c>
+      <c r="J116" t="s">
+        <v>730</v>
+      </c>
+      <c r="K116" t="s">
+        <v>731</v>
+      </c>
+      <c r="L116" t="s">
+        <v>694</v>
+      </c>
+      <c r="N116" t="s">
+        <v>732</v>
+      </c>
+      <c r="O116" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="117" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>619</v>
       </c>
-      <c r="D110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>601</v>
-      </c>
-      <c r="B111" t="s">
+      <c r="B117" t="s">
+        <v>220</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="L117" t="s">
+        <v>728</v>
+      </c>
+      <c r="N117" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q117">
+        <v>10</v>
+      </c>
+      <c r="AA117" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="118" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>620</v>
       </c>
-      <c r="D111">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>601</v>
-      </c>
-      <c r="B112" t="s">
+      <c r="B118" t="s">
         <v>621</v>
       </c>
-      <c r="D112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>601</v>
-      </c>
-      <c r="B113" t="s">
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="I118" t="s">
+        <v>714</v>
+      </c>
+      <c r="M118" t="s">
+        <v>708</v>
+      </c>
+      <c r="N118" t="s">
+        <v>726</v>
+      </c>
+      <c r="Q118">
+        <v>10</v>
+      </c>
+      <c r="R118" t="s">
+        <v>696</v>
+      </c>
+      <c r="S118" t="s">
+        <v>705</v>
+      </c>
+      <c r="W118">
+        <v>6</v>
+      </c>
+      <c r="AA118" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB118" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="AF118" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="119" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
         <v>622</v>
       </c>
-      <c r="D113">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>601</v>
-      </c>
-      <c r="B114" t="s">
+      <c r="B119" t="s">
+        <v>250</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="I119" t="s">
+        <v>723</v>
+      </c>
+      <c r="M119" t="s">
+        <v>722</v>
+      </c>
+      <c r="N119" t="s">
+        <v>698</v>
+      </c>
+      <c r="R119" t="s">
+        <v>725</v>
+      </c>
+      <c r="V119" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="120" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
         <v>623</v>
       </c>
-      <c r="D114">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>601</v>
-      </c>
-      <c r="B115" t="s">
-        <v>624</v>
-      </c>
-      <c r="D115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>601</v>
-      </c>
-      <c r="B116" t="s">
-        <v>529</v>
-      </c>
-      <c r="D116">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>625</v>
-      </c>
-      <c r="B117" t="s">
-        <v>626</v>
-      </c>
-      <c r="D117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>627</v>
-      </c>
-      <c r="B118" t="s">
-        <v>628</v>
-      </c>
-      <c r="D118">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>629</v>
-      </c>
-      <c r="B119" t="s">
-        <v>220</v>
-      </c>
-      <c r="D119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>630</v>
-      </c>
       <c r="B120" t="s">
-        <v>631</v>
+        <v>530</v>
       </c>
       <c r="D120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I120" t="s">
+        <v>720</v>
+      </c>
+      <c r="L120" t="s">
+        <v>694</v>
+      </c>
+      <c r="M120" t="s">
+        <v>709</v>
+      </c>
+      <c r="N120" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q120">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="B121" t="s">
         <v>250</v>
@@ -8569,113 +12202,239 @@
       <c r="D121">
         <v>2</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I121" t="s">
+        <v>718</v>
+      </c>
+      <c r="L121" t="s">
+        <v>694</v>
+      </c>
+      <c r="M121" t="s">
+        <v>719</v>
+      </c>
+      <c r="N121" t="s">
+        <v>698</v>
+      </c>
+      <c r="R121" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="122" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B122" t="s">
-        <v>538</v>
+        <v>625</v>
       </c>
       <c r="D122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I122" t="s">
+        <v>714</v>
+      </c>
+      <c r="M122" t="s">
+        <v>715</v>
+      </c>
+      <c r="N122" t="s">
+        <v>716</v>
+      </c>
+      <c r="O122" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="123" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>531</v>
       </c>
       <c r="D123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I123" t="s">
+        <v>710</v>
+      </c>
+      <c r="L123" t="s">
+        <v>698</v>
+      </c>
+      <c r="M123" t="s">
+        <v>711</v>
+      </c>
+      <c r="N123" t="s">
+        <v>698</v>
+      </c>
+      <c r="O123" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q123">
+        <v>15</v>
+      </c>
+      <c r="V123" t="s">
+        <v>713</v>
+      </c>
+      <c r="AA123" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="124" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B124" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="D124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I124" t="s">
+        <v>708</v>
+      </c>
+      <c r="M124" t="s">
+        <v>709</v>
+      </c>
+      <c r="N124" t="s">
+        <v>698</v>
+      </c>
+      <c r="R124" t="s">
+        <v>696</v>
+      </c>
+      <c r="S124" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="125" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B125" t="s">
-        <v>539</v>
+        <v>611</v>
       </c>
       <c r="D125">
         <v>2</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I125" t="s">
+        <v>706</v>
+      </c>
+      <c r="M125" t="s">
+        <v>707</v>
+      </c>
+      <c r="N125" t="s">
+        <v>704</v>
+      </c>
+      <c r="Q125">
+        <v>15</v>
+      </c>
+      <c r="R125" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA125" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB125" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B126" t="s">
-        <v>636</v>
+        <v>590</v>
       </c>
       <c r="D126">
         <v>2</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I126" t="s">
+        <v>702</v>
+      </c>
+      <c r="L126" t="s">
+        <v>698</v>
+      </c>
+      <c r="M126" t="s">
+        <v>703</v>
+      </c>
+      <c r="N126" t="s">
+        <v>704</v>
+      </c>
+      <c r="R126" t="s">
+        <v>696</v>
+      </c>
+      <c r="S126" t="s">
+        <v>705</v>
+      </c>
+      <c r="AA126" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB126" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="B127" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I127" t="s">
+        <v>697</v>
+      </c>
+      <c r="L127" t="s">
+        <v>698</v>
+      </c>
+      <c r="M127" t="s">
+        <v>699</v>
+      </c>
+      <c r="N127" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q127">
+        <v>20</v>
+      </c>
+      <c r="T127" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA127" t="s">
+        <v>419</v>
+      </c>
+      <c r="AB127" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="128" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B128" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="D128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
-        <v>634</v>
-      </c>
-      <c r="B129" t="s">
-        <v>637</v>
-      </c>
-      <c r="D129">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>638</v>
-      </c>
-      <c r="B130" t="s">
-        <v>639</v>
-      </c>
-      <c r="D130">
-        <v>2</v>
+      <c r="L128" t="s">
+        <v>694</v>
+      </c>
+      <c r="N128" t="s">
+        <v>695</v>
+      </c>
+      <c r="R128" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA128" t="s">
+        <v>439</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="AA1:AA128" xr:uid="{285299B4-E214-460B-9EDA-5409072924F0}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.srs.fs.usda.gov/pubs/misc/ag_654/volume_2/aesculus/octandra.htm" xr:uid="{879FBFDC-984B-4425-A715-8A860C17E18E}"/>
     <hyperlink ref="A15" r:id="rId2" display="https://www.srs.fs.usda.gov/pubs/misc/ag_654/volume_2/alnus/rubra.htm" xr:uid="{0C8193B6-C85D-4B00-8037-650155DFD578}"/>
     <hyperlink ref="A19" r:id="rId3" display="https://www.srs.fs.usda.gov/pubs/misc/ag_654/volume_2/betula/nigra.htm" xr:uid="{CAF2CCFB-2224-4FCA-8BA3-30D243572E5B}"/>
-    <hyperlink ref="A78" r:id="rId4" display="https://www.srs.fs.usda.gov/pubs/misc/ag_654/volume_2/paulownia/tomentosa.htm" xr:uid="{0DCF1D0C-52B0-4231-AC3D-719F2F489B78}"/>
+    <hyperlink ref="A77" r:id="rId4" display="https://www.srs.fs.usda.gov/pubs/misc/ag_654/volume_2/paulownia/tomentosa.htm" xr:uid="{0DCF1D0C-52B0-4231-AC3D-719F2F489B78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
